--- a/storage/app/repository/NIS2.de.xlsx
+++ b/storage/app/repository/NIS2.de.xlsx
@@ -684,7 +684,7 @@
       </c>
       <c r="F2" s="10" t="inlineStr">
         <is>
-          <t>Diese Richtlinie gilt für öffentliche oder private Einrichtungen der in Anhang I oder II genannten Art, die als mittlere Unternehmen gelten ... ihre Dienstleistungen erbringen oder ihre Tätigkeiten innerhalb der Union ausüben.
+          <t>Dieses Regelwerk richtet sich an besonders wichtige Einrichtungen und wichtige Einrichtungen im Sinne des BSI‑Gesetzes (BSIG) § 28 (Sektoren/Einrichtungsarten nach Anlagen 1 und 2) sowie – soweit einschlägig – an Einrichtungen der Bundesverwaltung (§ 29). Ob eine Organisation erfasst ist, ergibt sich aus Sektor, Einrichtungsart und ggf. Größen‑/Schwellenwerten.
 DE: BSIG §28 (BGBl. I 2025 Nr. 301)</t>
         </is>
       </c>
@@ -746,9 +746,8 @@
       </c>
       <c r="F3" s="10" t="inlineStr">
         <is>
-          <t>Mindestens die folgenden Informationen an die zuständigen Behörden übermitteln:
-- Name, Anschrift, Sektor, Liste der Mitgliedstaaten, in denen Dienstleistungen erbracht werden
-DE: BSIG §33, §59 (BGBl. I 2025 Nr. 301)</t>
+          <t>Besonders wichtige Einrichtungen, wichtige Einrichtungen sowie Domain‑Name‑Registry‑Diensteanbieter müssen sich spätestens drei Monate nach erstmaliger oder erneuter Einstufung beim BSI registrieren. Zu übermitteln sind u. a. Name (inkl. Rechtsform und ggf. Handelsregisternummer), Anschrift und aktuelle Kontaktdaten (inkl. E‑Mail‑Adresse, öffentliche IP‑Adressbereiche und Telefonnummern), relevanter Sektor/Branche, EU‑Mitgliedstaaten der Leistungserbringung sowie zuständige Aufsichtsbehörden. Änderungen sind fristgerecht zu melden.
+DE: BSIG §33 (BGBl. I 2025 Nr. 301)</t>
         </is>
       </c>
       <c r="G3" s="9" t="inlineStr">
@@ -810,7 +809,7 @@
       </c>
       <c r="F4" s="10" t="inlineStr">
         <is>
-          <t>Die Mitgliedstaaten stellen sicher, dass die Leitungsorgane wesentlicher und wichtiger Einrichtungen die von diesen Einrichtungen ergriffenen Cybersicherheits‑Risikomanagementmaßnahmen zur Erfüllung von Artikel 21 genehmigen, deren Umsetzung überwachen und für Verstöße der Einrichtungen gegen diesen Artikel haftbar gemacht werden können.
+          <t>Geschäftsleitungen besonders wichtiger Einrichtungen und wichtiger Einrichtungen sind verpflichtet, die nach BSIG § 30 erforderlichen Risikomanagementmaßnahmen umzusetzen und deren Umsetzung zu überwachen. Bei Pflichtverletzung können sie nach BSIG § 38 haftungsrechtlich in Anspruch genommen werden.
 DE: BSIG §38, §30 (BGBl. I 2025 Nr. 301)</t>
         </is>
       </c>
@@ -871,8 +870,8 @@
       </c>
       <c r="F5" s="10" t="inlineStr">
         <is>
-          <t>Die Mitgliedstaaten stellen sicher, dass die Mitglieder der Leitungsorgane wesentlicher und wichtiger Einrichtungen verpflichtet sind, regelmäßige Schulungen zu absolvieren ... Cybersicherheitspraktiken sowie deren Auswirkungen auf die von der Einrichtung erbrachten Dienstleistungen.
-DE: BSIG §38 (BGBl. I 2025 Nr. 301)</t>
+          <t>Die Geschäftsleitungen besonders wichtiger Einrichtungen und wichtiger Einrichtungen müssen regelmäßig an Schulungen teilnehmen, um ausreichende Kenntnisse und Fähigkeiten zur Erkennung und Bewertung von Risiken sowie von Risikomanagementpraktiken im Bereich der Sicherheit in der Informationstechnik zu erlangen und die Auswirkungen auf die von der Einrichtung erbrachten Dienste beurteilen zu können.
+DE: BSIG §38 Abs. 3 (BGBl. I 2025 Nr. 301)</t>
         </is>
       </c>
       <c r="G5" s="9" t="inlineStr">
@@ -934,8 +933,8 @@
       </c>
       <c r="F6" s="10" t="inlineStr">
         <is>
-          <t>Die Mitgliedstaaten stellen sicher, dass wesentliche und wichtige Einrichtungen geeignete und verhältnismäßige technische, operative ... und organisatorische Maßnahmen ergreifen ... und deren Schwere, einschließlich ihrer gesellschaftlichen und wirtschaftlichen Auswirkungen.
-DE: BSIG §30 (BGBl. I 2025 Nr. 301)</t>
+          <t>Es sind geeignete, verhältnismäßige und wirksame technische und organisatorische Maßnahmen zu ergreifen, um Störungen der Verfügbarkeit, Integrität und Vertraulichkeit der für die Erbringung der Dienste genutzten IT‑Systeme, Komponenten und Prozesse zu vermeiden und die Auswirkungen von Sicherheitsvorfällen möglichst gering zu halten. Die Maßnahmen sollen dem Stand der Technik entsprechen, einschlägige europäische und internationale Normen berücksichtigen und auf einem gefahrenübergreifenden Ansatz beruhen; die Einhaltung ist zu dokumentieren.
+DE: BSIG §30 Abs. 1–2 (BGBl. I 2025 Nr. 301)</t>
         </is>
       </c>
       <c r="G6" s="9" t="inlineStr">
@@ -999,8 +998,8 @@
       </c>
       <c r="F7" s="10" t="inlineStr">
         <is>
-          <t>Die Cybersicherheits‑Risikomanagementmaßnahmen sollten daher auch ... sowie anwendbare internationale Normen berücksichtigen, wie etwa die in der ISO/IEC‑27000‑Reihe enthaltenen.
-DE: BSIG §30 (BGBl. I 2025 Nr. 301)</t>
+          <t>Bei der Ausgestaltung der Risikomanagementmaßnahmen sollen einschlägige europäische und internationale Normen berücksichtigt werden. Als Orientierung können insbesondere ISO/IEC 27001 und die ISO/IEC‑27000‑Reihe (z. B. ISO/IEC 27002) herangezogen werden.
+DE: BSIG §30 Abs. 2 Satz 1 (BGBl. I 2025 Nr. 301)</t>
         </is>
       </c>
       <c r="G7" s="9" t="inlineStr">
@@ -1257,15 +1256,8 @@
       </c>
       <c r="F11" s="10" t="inlineStr">
         <is>
-          <t>Lieferkettensicherheit, einschließlich sicherheitsbezogener Aspekte der Beziehungen zwischen jeder Einrichtung und ihren direkten 
-Lieferanten oder Dienstleistern
-[...] Einrichtungen berücksichtigen die spezifischen Schwachstellen jedes direkten Lieferanten und Dienstleisters 
-und die Gesamtqualität der Produkte und der Cybersicherheitspraktiken ihrer Lieferanten und Dienstleister, einschließlich ihrer 
-sicheren Entwicklungsverfahren.
-Die Mitgliedstaaten stellen außerdem sicher, dass Einrichtungen bei der Prüfung, welche der in diesem Buchstaben genannten 
-Maßnahmen angemessen sind, verpflichtet sind, die Ergebnisse der koordinierten Sicherheitsrisikobewertungen kritischer Lieferketten 
-gemäß Artikel 22 Absatz 1 zu berücksichtigen.
-DE: BSIG §30 (BGBl. I 2025 Nr. 301)</t>
+          <t>Die Lieferkette ist abzusichern; hierzu gehören sicherheitsbezogene Aspekte der Beziehungen zu unmittelbaren Anbietern oder Diensteanbietern (z. B. Auswahlkriterien, vertragliche Mindestanforderungen, Überwachung sowie Incident‑Kommunikation).
+DE: BSIG §30 Abs. 2 Nr. 4 (BGBl. I 2025 Nr. 301)</t>
         </is>
       </c>
       <c r="G11" s="9" t="inlineStr">
@@ -1330,8 +1322,8 @@
       </c>
       <c r="F12" s="10" t="inlineStr">
         <is>
-          <t>Sicherheit bei Beschaffung, Entwicklung ... und Wartung von Netz‑ und Informationssystemen, einschließlich Umgang mit Schwachstellen und Offenlegung
-DE: BSIG §30 (BGBl. I 2025 Nr. 301)</t>
+          <t>Sicherheitsmaßnahmen bei Erwerb, Entwicklung und Wartung von informationstechnischen Systemen, Komponenten und Prozessen – einschließlich Management und Offenlegung von Schwachstellen – sind festzulegen und umzusetzen.
+DE: BSIG §30 Abs. 2 Nr. 5 (BGBl. I 2025 Nr. 301)</t>
         </is>
       </c>
       <c r="G12" s="9" t="inlineStr">
@@ -1455,8 +1447,8 @@
       </c>
       <c r="F14" s="10" t="inlineStr">
         <is>
-          <t>Grundlegende Cyberhygiene‑Praktiken und Cybersicherheits‑Schulungen
-DE: BSIG §30 (BGBl. I 2025 Nr. 301)</t>
+          <t>Grundlegende Schulungen und Sensibilisierungsmaßnahmen im Bereich der Sicherheit in der Informationstechnik sind durchzuführen und regelmäßig zu aktualisieren.
+DE: BSIG §30 Abs. 2 Nr. 7 (BGBl. I 2025 Nr. 301)</t>
         </is>
       </c>
       <c r="G14" s="9" t="inlineStr">
@@ -1976,8 +1968,8 @@
       </c>
       <c r="F22" s="10" t="inlineStr">
         <is>
-          <t>Um die Einhaltung bestimmter Anforderungen ... nach Artikel 21 nachzuweisen, können die Mitgliedstaaten wesentliche und wichtige Einrichtungen verpflichten, qualifizierte Vertrauensdienste zu nutzen
-DE: BSIG §30, §56 (BGBl. I 2025 Nr. 301)</t>
+          <t>Durch Rechtsverordnung kann festgelegt werden, dass bestimmte IKT‑Produkte, IKT‑Dienste oder IKT‑Prozesse nur verwendet werden dürfen, wenn sie über eine Cybersicherheitszertifizierung gemäß europäischen Schemata nach der Verordnung (EU) 2019/881 verfügen.
+DE: BSIG §30 Abs. 6, §56 (BGBl. I 2025 Nr. 301)</t>
         </is>
       </c>
       <c r="G22" s="9" t="inlineStr">
@@ -2036,16 +2028,7 @@
       </c>
       <c r="F23" s="10" t="inlineStr">
         <is>
-          <t>Die Mitgliedstaaten stellen sicher, dass die betroffenen Einrichtungen zum Zwecke der Meldung ... der CSIRT oder, soweit zutreffend, der zuständigen Behörde Folgendes übermitteln:
-(a) unverzüglich und in jedem Fall innerhalb von 24 Stunden nach ... Hinweise darauf, ob der erhebliche Sicherheitsvorfall vermutlich auf rechtswidrige oder böswillige Handlungen zurückzuführen ist oder grenzüberschreitende Auswirkungen haben könnte;
-(b) unverzüglich und in jedem Fall innerhalb von 72 Stunden nach ... eine Meldung des erheblichen Sicherheitsvorfalls, einschließlich – soweit verfügbar – einer ersten Bewertung des erheblichen Sicherheitsvorfalls, seiner Schwere und Auswirkungen, sowie – sofern verfügbar – der Indikatoren einer Kompromittierung;
-(c) auf Anforderung eines CSIRT oder, soweit zutreffend, der zuständigen Behörde, ... einen Zwischenbericht zu relevanten Status‑Updates;
-(d) einen Abschlussbericht spätestens einen Monat nach der Übermittlung ... der Sicherheitsvorfallmeldung nach Buchstabe (b), einschließlich:
-(i) einer detaillierten Beschreibung des Vorfalls, einschließlich seiner Schwere und Auswirkungen;
-(ii) der Art der Bedrohung oder Grundursache, die den Vorfall wahrscheinlich ausgelöst hat;
-(iii) angewandter und laufender Eindämmungsmaßnahmen;
-(iv) soweit zutreffend, der grenzüberschreitenden Auswirkungen des Vorfalls;
-(e) im Fall eines zum Zeitpunkt der Übermittlung ... laufenden Vorfalls ... den Abschlussbericht innerhalb eines Monats nach Abschluss der Bearbeitung des Vorfalls.
+          <t>Erhebliche Sicherheitsvorfälle sind über die gemeinsame Meldestelle zu melden: (1) frühe Erstmeldung spätestens binnen 24 Stunden nach Kenntniserlangung, (2) Meldung spätestens binnen 72 Stunden mit Bestätigung/Aktualisierung und erster Bewertung (inkl. Schweregrad/Auswirkungen und ggf. Kompromittierungsindikatoren), (3) auf Ersuchen Zwischenmeldungen, (4) Abschlussmeldung spätestens einen Monat nach der 72‑Stunden‑Meldung (bei andauerndem Vorfall zunächst Fortschrittsmeldung). Die Pflichten gelten frühestens ab Einrichtung des Meldewegs.
 DE: BSIG §32 (BGBl. I 2025 Nr. 301)</t>
         </is>
       </c>
@@ -2107,11 +2090,8 @@
       </c>
       <c r="F24" s="10" t="inlineStr">
         <is>
-          <t>Jeder Mitgliedstaat stellt sicher, dass wesentliche und wichtige Einrichtungen ihren CSIRT oder, soweit 
-zutreffend, ihre zuständige Behörde gemäß Absatz 4 unverzüglich über jeden Sicherheitsvorfall informieren, der erhebliche Auswirkungen auf die 
-Erbringung ihrer Dienstleistungen gemäß Absatz 3 hat (erheblicher Sicherheitsvorfall). Soweit angemessen, informieren die betroffenen Einrichtungen 
-unverzüglich die Empfänger ihrer Dienstleistungen über erhebliche Sicherheitsvorfälle, die die Erbringung dieser Dienstleistungen voraussichtlich nachteilig beeinträchtigen.
-DE: BSIG §32, §35, §59 (BGBl. I 2025 Nr. 301)</t>
+          <t>Im Fall eines erheblichen Sicherheitsvorfalls kann das BSI anordnen, dass Empfänger der Dienste unverzüglich über den Vorfall zu unterrichten sind, wenn die Erbringung des jeweiligen Dienstes beeinträchtigt sein könnte (ggf. auch per Veröffentlichung). Für bestimmte Sektoren bestehen zudem Pflichten, potenziell betroffene Empfänger über erhebliche Cyberbedrohungen sowie geeignete Abwehr‑ oder Abhilfemaßnahmen zu informieren.
+DE: BSIG §35 (BGBl. I 2025 Nr. 301)</t>
         </is>
       </c>
       <c r="G24" s="9" t="inlineStr">
@@ -2171,13 +2151,8 @@
       </c>
       <c r="F25" s="10" t="inlineStr">
         <is>
-          <t>Art. 32 (4) a) [wesentliche Einrichtungen]
-4. Die Mitgliedstaaten stellen sicher, dass ihre zuständigen Behörden, ... in Bezug auf wesentliche Einrichtungen mindestens befugt sind:
-(a) Warnungen über Verstöße der betroffenen Einrichtungen gegen diese Richtlinie auszusprechen; [...]
-Art. 33 (4) a) [wichtige Einrichtungen]
-4. Die Mitgliedstaaten stellen sicher, dass die zuständigen Behörden, ... in Bezug auf wichtige Einrichtungen mindestens befugt sind:
-(a) Warnungen über Verstöße der betroffenen Einrichtungen gegen diese Richtlinie auszusprechen; [...]
-DE: BSIG §13, §3 (BGBl. I 2025 Nr. 301)</t>
+          <t>Das BSI kann Warnungen und Informationen an die Öffentlichkeit oder an betroffene Kreise richten (z. B. zu Schwachstellen, Schadprogrammen, Datenverlust oder unbefugtem Datenzugriff sowie zu sicherheitsrelevanten IT‑Eigenschaften) und Sicherheitsmaßnahmen bzw. den Einsatz bestimmter Sicherheitsprodukte empfehlen. Hersteller betroffener Produkte sind grundsätzlich vorab zu informieren; Warnungen werden bei Wegfall der Voraussetzungen regelmäßig überprüft.
+DE: BSIG §13 (BGBl. I 2025 Nr. 301)</t>
         </is>
       </c>
       <c r="G25" s="9" t="inlineStr">
@@ -2237,20 +2212,8 @@
       </c>
       <c r="F26" s="10" t="inlineStr">
         <is>
-          <t>Art. 11 (3)
-3. Die CSIRTs haben insbesondere folgende Aufgaben:
-[...]
-(e)
-auf Antrag einer wesentlichen oder wichtigen Einrichtung, ... Schwachstellen mit potenziell erheblichen Auswirkungen zu erkennen; [...]
-Art. 32 (2) [wesentliche Einrichtungen]
-2. Die Mitgliedstaaten stellen sicher, dass die zuständigen Behörden, ... befugt sind, diese Einrichtungen mindestens folgenden Maßnahmen zu unterziehen:
-[...]
-(d) Sicherheitsscans auf der Grundlage objektiver, nichtdiskriminierender, fairer ... soweit dies mit der Mitwirkung der betroffenen Einrichtung erforderlich ist; [...]
-Art. 33 (2) [wichtige Einrichtungen]
-2. Die Mitgliedstaaten stellen sicher, dass die zuständigen Behörden, ... befugt sind, diese Einrichtungen mindestens folgenden Maßnahmen zu unterziehen:
-[...]
-(c) Sicherheitsscans auf der Grundlage objektiver, nichtdiskriminierender, fairer ... soweit dies mit der Mitwirkung der betroffenen Einrichtung erforderlich ist; [...]
-DE: BSIG §15, §3 (BGBl. I 2025 Nr. 301)</t>
+          <t>Das BSI kann Abfragen an den Schnittstellen öffentlich erreichbarer informationstechnischer Systeme zu öffentlichen Telekommunikationsnetzen durchführen, um bekannte Schwachstellen oder andere Sicherheitsrisiken zu detektieren – auch auf Ersuchen von Einrichtungen. Wird ein Risiko erkannt, informiert das BSI die Verantwortlichen unverzüglich und weist auf bestehende Möglichkeiten zur Abhilfe hin.
+DE: BSIG §15 (BGBl. I 2025 Nr. 301)</t>
         </is>
       </c>
       <c r="G26" s="9" t="inlineStr">
@@ -2314,7 +2277,7 @@
       </c>
       <c r="F27" s="10" t="inlineStr">
         <is>
-          <t>Die Mitgliedstaaten stellen sicher, dass Einrichtungen, die in den Anwendungsbereich ... fallen, und – soweit relevant – andere Einrichtungen ... Informationen austauschen, u. a. zu Cybersicherheits‑Risikomanagementmaßnahmen, Schwachstellen und Bedrohungen sowie zu Tools zur Erkennung von Cyberangriffen, sofern ein solcher Informationsaustausch:
+          <t>Das BSI betreibt eine Online‑Plattform zum Informationsaustausch mit wichtigen Einrichtungen, besonders wichtigen Einrichtungen und Einrichtungen der Bundesverwaltung. Der Austausch umfasst u. a. Cyberbedrohungen, Schwachstellen, Beinahevorfälle und IT‑Sicherheitsmaßnahmen; Hersteller, Lieferanten oder Dienstleister können einbezogen werden.
 DE: BSIG §6 (BGBl. I 2025 Nr. 301)</t>
         </is>
       </c>
@@ -2374,9 +2337,8 @@
       </c>
       <c r="F28" s="10" t="inlineStr">
         <is>
-          <t>Die Mitgliedstaaten stellen sicher, dass eine Einrichtung, die feststellt, dass sie die in Absatz 2 vorgesehenen Maßnahmen nicht einhält, 
-unverzüglich alle erforderlichen, angemessenen und verhältnismäßigen Korrekturmaßnahmen ergreift.
-DE: BSIG §62, §30, §32, §38, §61 (BGBl. I 2025 Nr. 301)</t>
+          <t>Rechtfertigen Tatsachen die Annahme, dass eine wichtige Einrichtung Verpflichtungen nach BSIG §30, §32 oder §38 nicht oder nicht richtig umsetzt, kann das BSI die Einhaltung überprüfen und Aufsichts‑/Durchsetzungsmaßnahmen ergreifen (Maßnahmen nach §61). Gegenüber besonders wichtigen Einrichtungen kann das BSI u. a. Audits/Prüfungen/Zertifizierungen anordnen, Nachweise verlangen und bei Mängeln konkrete Abhilfemaßnahmen sowie Mängelbeseitigungspläne anordnen.
+DE: BSIG §62 i. V. m. §61 (BGBl. I 2025 Nr. 301)</t>
         </is>
       </c>
       <c r="G28" s="9" t="inlineStr">

--- a/storage/app/repository/NIS2.de.xlsx
+++ b/storage/app/repository/NIS2.de.xlsx
@@ -2405,7 +2405,7 @@
       </c>
       <c r="G29" s="9" t="inlineStr">
         <is>
-          <t>#Schwachstellenmanagement</t>
+          <t>#Schwachstellenmanagement; ISO27001:A.8.8</t>
         </is>
       </c>
       <c r="H29" s="10" t="inlineStr">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="K29" s="10" t="inlineStr">
         <is>
-          <t>Hinweis für KMU: Der CRA sieht hier eine Ausnahme vor, für KMU gilt nicht die 24h Early Warning, sondern erst die 72h (KMU: bis 250 Mitarbeiter).</t>
+          <t>NIS‑2/BSIG: Schwachstellenmanagement ist als Risikomanagementmaßnahme relevant (keine Pflicht, reine Produkt‑Schwachstellen binnen 24/72h zu melden). Etabliere einen Prozess für koordinierte Schwachstellen‑Offenlegung (CVD): Meldekanal (z. B. security.txt), Triage/Risikobewertung, Remediation‑SLAs, Patch‑/Change‑Management, Verifikation und Dokumentation. Überwache Hersteller‑/CERT‑Advisories (ggf. ENISA/BSI‑Hinweise). Wenn eine Schwachstelle zu einem erheblichen Sicherheitsvorfall führt, gelten die Incident‑Meldepflichten nach §32 BSIG.</t>
         </is>
       </c>
     </row>

--- a/storage/app/repository/NIS2.de.xlsx
+++ b/storage/app/repository/NIS2.de.xlsx
@@ -933,11 +933,12 @@
     <numFmt numFmtId="168" formatCode="_-* #,##0&quot; €&quot;_-;\-* #,##0&quot; €&quot;_-;_-* &quot;- €&quot;_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="0\ %"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -974,6 +975,11 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1060,15 +1066,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="24" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="24" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="24" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="24" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1294,10 +1300,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2297,12 +2303,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="1"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="J29" s="2"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/storage/app/repository/NIS2.de.xlsx
+++ b/storage/app/repository/NIS2.de.xlsx
@@ -419,7 +419,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="149">
   <si>
     <t xml:space="preserve">Rahmenwerk</t>
   </si>
@@ -492,7 +492,7 @@
     <t xml:space="preserve">Registrierung &amp; Informationen</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2</t>
+    <t xml:space="preserve">3.2.1</t>
   </si>
   <si>
     <t xml:space="preserve">Unternehmensregistrierung</t>
@@ -517,6 +517,9 @@
     <t xml:space="preserve">Governance &amp; Führung</t>
   </si>
   <si>
+    <t xml:space="preserve">3.2.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Führung / Management-Verantwortung</t>
   </si>
   <si>
@@ -532,6 +535,9 @@
   <si>
     <t xml:space="preserve">Ergebnisse der Untersuchungen und Risikoprüfungen, z.B. externe Pentests, müssen aktiv betrachtet und entsprechend der Empfehlungen umgesetzt werden. Ggf. kann das auch das Abschalten von Systemen beinhalten.
 Es müssen ausreichend Ressourcen bereitgestellt werden. Dabei ist daran zu denken, dass die Maßnahmen nicht nur einmalige, sondern auch wiederkehrende Betreuung benötigen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.3</t>
   </si>
   <si>
     <t xml:space="preserve">Schulung und Sensibilisierung</t>
@@ -551,6 +557,9 @@
   </si>
   <si>
     <t xml:space="preserve">Cybersicherheits-Risikomanagementmaßnahmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.4</t>
   </si>
   <si>
     <t xml:space="preserve">ISMS, risikobasierter Ansatz, Stand der Technik</t>
@@ -577,6 +586,9 @@
     <t xml:space="preserve">Best Practice / Standards</t>
   </si>
   <si>
+    <t xml:space="preserve">3.2.5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Allgemeiner Verweis auf ISO/IEC-27000-Reihe</t>
   </si>
   <si>
@@ -592,6 +604,9 @@
 KMU-gerecht sind unter anderem
 VDS 1000: https://www.kiss-nis2.de/doku.php
 Grundschutz Plus: https://security4kmu.de/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.6</t>
   </si>
   <si>
     <t xml:space="preserve">Richtlinien</t>
@@ -613,6 +628,9 @@
 Es ist zu erwarten, dass Kunden dieses Konzept anfragen. Eine vorgefertigte Antwort sollte hierzu parat liegen. Anfragen sind zu erwarten seitens Sales, IT-Betrieb, Wartung/Instandhaltung für z.B. Rechte-/Rollenkonzept, Zugriffsschutz, etc.</t>
   </si>
   <si>
+    <t xml:space="preserve">3.2.7</t>
+  </si>
+  <si>
     <t xml:space="preserve">Management von Sicherheitsvorfällen</t>
   </si>
   <si>
@@ -627,6 +645,9 @@
 Übung der Ermittlung von erheblichen Sicherheitsvorfällen, z.B. mit Use Cases
 Übung von relevanten möglichen Vorfällen
 Dokumentierung der Meldewege, Kontakte auch offline, um Zugriff darauf zu erhalten, wenn die Systeme nicht verfügbar sind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.8</t>
   </si>
   <si>
     <t xml:space="preserve">Business-Continuity-Management (BCM)</t>
@@ -645,6 +666,9 @@
 Erarbeitung eines Wiederherstellungsplans und Übung der Wiederherstellung bei Einrichtung (Funktionsprüfung, klappt die Wiederherstellung). Regelmäßige Prüfung ist empfohlen.
 Notfallhandbuch pflegen
 Melde- und Auskunftspflicht bei der Notfallkommunikation mit einplanen, da Nichterreichbarkeit des Kontakts ein Bußgeld nach sich ziehen kann.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.9</t>
   </si>
   <si>
     <t xml:space="preserve">Lieferkettensicherheit</t>
@@ -666,6 +690,9 @@
 Eine security.txt aus Textdatei auf der Homepage ist einfach umzusetzen und sollte daher auch bei KMU umgesetzt werden.</t>
   </si>
   <si>
+    <t xml:space="preserve">3.2.10</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sichere Entwicklung</t>
   </si>
   <si>
@@ -684,6 +711,9 @@
 Vor Inbetriebnahme sollte (Im Idealfall) ein Wirksamkeitstest durchgeführt werden (SAT, FAT) um den Stand der Technik zu dokumentieren. Das Ergebnis sollte in etwa mit dem Ergebnis des Lieferantenscans übereinstimmen.</t>
   </si>
   <si>
+    <t xml:space="preserve">3.2.11</t>
+  </si>
+  <si>
     <t xml:space="preserve">Risikomanagement</t>
   </si>
   <si>
@@ -695,6 +725,9 @@
   </si>
   <si>
     <t xml:space="preserve">KPI's zur kontrollierten und standardisierten Vorgehensweise bilden, z.B. Anteil der geschulten Mitarbeiter, Passwortqualität, offene (kritische) Tickets, Anzahl Schwachstellen, Anzahl der erfolgreich wiederhegestellten Dateien aus dem Backup, Anzahl der erfolgreich wiederhergestellten Servern aus dem Backup etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.12</t>
   </si>
   <si>
     <t xml:space="preserve">Grundlegende Schulungen und Sensibilisierungsmaßnahmen im Bereich der Sicherheit in der Informationstechnik sind durchzuführen und regelmäßig zu aktualisieren.
@@ -718,6 +751,9 @@
 Phishing-Kampagnen sind von der Geschäftsleitung zu beauftragen, vom Betriebsrat zu genehmigen und DSGVO-konform auszuführen, den DSB frühst möglichst involvieren.</t>
   </si>
   <si>
+    <t xml:space="preserve">3.2.13</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kryptographie</t>
   </si>
   <si>
@@ -730,6 +766,9 @@
   <si>
     <t xml:space="preserve">Soweit möglich sollten Datenübertragungen nur mit Transportverschlüsselungen nach Stand der Technik erfolgen.
 Veraltete kryptographische Verfahren müssen aussortiert werden (z.B. MD5, TLS 1.0, TLS1.1, SMBv1, SNMPv1,2).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.14</t>
   </si>
   <si>
     <t xml:space="preserve">Personal-/HR-Sicherheit</t>
@@ -746,6 +785,9 @@
 Vetragliche Vereinbarung / Verpflichtung der Mitarbeiter auf Security, 
 Onboarding bezüglich geltender Security-Richtlinien, Sanktionierung, Durchsetzung von Maßnahmen bei Vorfällen, ggf. Offboarding bei Vertragsende
 Gesonderte Verpflichtung bei mobilen Arbeiten (HomeOffice, Mobiltelefon) und Anmeldung an Fremdgeräten (keine Nutzung von Firmenaccounts)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.15</t>
   </si>
   <si>
     <t xml:space="preserve">Zugriffskontrolle</t>
@@ -762,6 +804,9 @@
 Vermeidung einer flachen Netztopologie, Nutzung von VLANs</t>
   </si>
   <si>
+    <t xml:space="preserve">3.2.16</t>
+  </si>
+  <si>
     <t xml:space="preserve">Asset-Management</t>
   </si>
   <si>
@@ -774,6 +819,9 @@
 --&gt; Was ist dafür notwendig?
 --&gt; Welche Abhängigkeiten habe ich dabei?
 Das Asset Management kann die anderen Maßnahmen unterstützen, z.B. Schwachstellen/Patch Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.17</t>
   </si>
   <si>
     <t xml:space="preserve">Authentifizierung</t>
@@ -797,12 +845,18 @@
 Vermeidung der Speicherung von biometrischen Daten</t>
   </si>
   <si>
+    <t xml:space="preserve">3.2.18</t>
+  </si>
+  <si>
     <t xml:space="preserve">Telefonie auf IP-Telefonie mit Verschlüsselung umstellen, richtige Einstellungen der Videokonferenz-Systeme (organisatorische Maßnahmen), so dass Gäste nicht unkontrolliert teilnehmen können. 
 Konfiguration der Systeme muss überprüft und angepasst werden. Mailserver mit aktueller Verschlüsselung der Übertragung betreiben oder in der Cloud betreiben. 
 Härtungs-Empfehlungen von Informations-Systemen umsetzen. Sowohl bei Cloud-Anbieter als bei selbst gehosteten Systemen sind Security-Einstellungen aktiv zu verwalten. 
 Leitlinie für sensible Informationen erstellen, wie diese bei der Übertragung zu sichern sind (Verschlüsselung, geeignete Kanäle (Secure Cloud))</t>
   </si>
   <si>
+    <t xml:space="preserve">3.2.19</t>
+  </si>
+  <si>
     <t xml:space="preserve">Notfallsystem überlegen, das bei Ausfall des Haupt-Systems genutzt werden kann, z.B. ein freies System (Jitsi, Signal). 
 Einen virtuellen Raum im Notfallhandbuch definieren, in dem sich alle Notfall-Manager treffen können.
 Der VDMA empfiehlt die Festlegung auf ein externes Notfall-Kommunikationssystem.
@@ -812,6 +866,9 @@
     <t xml:space="preserve">Umgang mit Schwachstellen &amp; Offenlegung</t>
   </si>
   <si>
+    <t xml:space="preserve">3.2.20</t>
+  </si>
+  <si>
     <t xml:space="preserve">Einsatz zertifizierter Produkte</t>
   </si>
   <si>
@@ -829,6 +886,9 @@
   </si>
   <si>
     <t xml:space="preserve">Meldung von Sicherheitsvorfällen &amp; Benachrichtigungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.21</t>
   </si>
   <si>
     <t xml:space="preserve">Meldung/Reporting</t>
@@ -860,7 +920,7 @@
 Prozesse vorsehen, die eine Information an interessierte Kreise ermöglichen</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1</t>
+    <t xml:space="preserve">2.1.1</t>
   </si>
   <si>
     <t xml:space="preserve">Das BSI kann Warnungen und Informationen an die Öffentlichkeit oder an betroffene Kreise richten (z. B. zu Schwachstellen, Schadprogrammen, Datenverlust oder unbefugtem Datenzugriff sowie zu sicherheitsrelevanten IT-Eigenschaften) und Sicherheitsmaßnahmen bzw. den Einsatz bestimmter Sicherheitsprodukte empfehlen. Hersteller betroffener Produkte sind grundsätzlich vorab zu informieren; Warnungen werden bei Wegfall der Voraussetzungen regelmäßig überprüft.
@@ -872,6 +932,9 @@
   <si>
     <t xml:space="preserve">Geschäftsführung über die Problematik in Kenntnis setzen.
 Meldung von BSI und Dritten ernst nehmen (und tätig werden)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.2</t>
   </si>
   <si>
     <t xml:space="preserve">Das BSI kann Abfragen an den Schnittstellen öffentlich erreichbarer informationstechnischer Systeme zu öffentlichen Telekommunikationsnetzen durchführen, um bekannte Schwachstellen oder andere Sicherheitsrisiken zu detektieren – auch auf Ersuchen von Einrichtungen. Wird ein Risiko erkannt, informiert das BSI die Verantwortlichen unverzüglich und weist auf bestehende Möglichkeiten zur Abhilfe hin.
@@ -892,6 +955,9 @@
     <t xml:space="preserve">Aufsicht &amp; Durchsetzung</t>
   </si>
   <si>
+    <t xml:space="preserve">2.1.3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Schwachstellenmanagement</t>
   </si>
   <si>
@@ -925,13 +991,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* \-??\ _€_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;- &quot;_€_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00&quot; €&quot;_-;\-* #,##0.00&quot; €&quot;_-;_-* \-??&quot; €&quot;_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0&quot; €&quot;_-;\-* #,##0&quot; €&quot;_-;_-* &quot;- €&quot;_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="0\ %"/>
+    <numFmt numFmtId="170" formatCode="@"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -1061,7 +1128,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1070,12 +1137,24 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="24" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="24" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="2" borderId="1" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1302,8 +1381,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1315,992 +1394,992 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="28.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="62.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="32.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="37.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="38.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="37.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="38.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="28.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="57.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="57.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="20.85"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="13" style="1" width="11.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="92.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="125.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="100.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="E5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="G5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="284.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="284.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="F14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D15" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="I15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="125.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="103.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="103.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="227.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="92.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="125.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="103.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="103.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="227.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="92.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>122</v>
+      <c r="I27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="114.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="1" t="n">
+      <c r="A28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>124</v>
+      <c r="E28" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>126</v>
+        <v>147</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/storage/app/repository/NIS2.de.xlsx
+++ b/storage/app/repository/NIS2.de.xlsx
@@ -419,7 +419,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="165">
   <si>
     <t xml:space="preserve">Rahmenwerk</t>
   </si>
@@ -473,7 +473,72 @@
     <t xml:space="preserve">#Applicability</t>
   </si>
   <si>
-    <t xml:space="preserve">Richtlinien, Verfahren, Aufzeichnungen und Protokolle (Logs) als Nachweis für Umsetzung und Betrieb</t>
+    <t xml:space="preserve">Nachweis über NIS-2-Betroffenheit. Der Nachweis kann über eine Wirtschaftskanzlei oder einen Anwalt erfolgen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Einrichtung ist geprüft, ob sie unter NIS 2 fällt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grün: NIS 2 betroffen und registriert
+Orange: NIS 2 betroffen und nicht registriert
+Rot: NIS 2 Prüfung steht noch aus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prüfung aller Einrichtungskategorien in Anlage 1 und Anlage 2 des Umsetzungsgesetzes. Die Tabellen weichen von der NIS2 ab.
+Fällt man in die Kategorie, ist man betroffen.
+Der VDMA hat ein umfangreiches Memo zur Betroffenheit erstellt, dass für VDMA-Mitglieder kostenfrei zur Verfügung steht.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registrierung &amp; Informationen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unternehmensregistrierung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Besonders wichtige Einrichtungen, wichtige Einrichtungen sowie Domain-Name-Registry-Diensteanbieter müssen sich spätestens drei Monate nach erstmaliger oder erneuter Einstufung beim BSI registrieren. Zu übermitteln sind u. a. Name (inkl. Rechtsform und ggf. Handelsregisternummer), Anschrift und aktuelle Kontaktdaten (inkl. E-Mail-Adresse, öffentliche IP-Adressbereiche und Telefonnummern), relevanter Sektor/Branche, EU-Mitgliedstaaten der Leistungserbringung sowie zuständige Aufsichtsbehörden. Änderungen sind fristgerecht zu melden.
+DE: BSIG §33 (BGBl. I 2025 Nr. 301)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Unternehmensregistrierung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registrierungsübermittlung, Nachweise zur Einstufung der Einrichtung (Sektor/Größe), Kontaktdaten, IP-Bereiche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alle Daten sind übermittelt und von der Behörde bestätigt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grün: Daten übermittelt und bestätigt
+Orange: Daten übermittelt – Bestätigung steht noch aus
+Rot: Daten nicht übermittelt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entscheidungen bzw. Schlussfolgerungen müssen durch die Geschäftsleitung getroffen werden und für die nationale Behörde (und den Kunden) dokumentiert werden.
+Vorbereitung entsprechender Informationen zur Registrierung für die Behörde. 
+Kontaktdaten sollten nicht personenbezogen sein, um bei Verantwortungswechsel weiterhin aktuell zu sein.
+Die Registrierung erfolgt in zwei Stufen: https://www.bsi.bund.de/DE/Themen/Regulierte-Wirtschaft/NIS-2-regulierte-Unternehmen/NIS-2-Pflichten/nis-2-pflichten_node.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Governance &amp; Führung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Führung / Management-Verantwortung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geschäftsleitungen besonders wichtiger Einrichtungen und wichtiger Einrichtungen sind verpflichtet, die nach BSIG § 30 erforderlichen Risikomanagementmaßnahmen umzusetzen und deren Umsetzung zu überwachen. Bei Pflichtverletzung können sie nach BSIG § 38 haftungsrechtlich in Anspruch genommen werden.
+DE: BSIG §38, §30 (BGBl. I 2025 Nr. 301)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Führung #Management_Verpflichtung ISO 27001/27002: Basic requirement for an ISMS in general; Chapter 5 "Leadership"; Kapitel 6 „Planung“ / 6.1; Chapter 8 "Operation"; Chapter 9 „Bewertung der Leistung“; Kapitel 10 „Verbesserung“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Von der Leitung genehmigte Richtlinien, ISMS-Geltungsbereich, Protokolle aus Management-Reviews</t>
   </si>
   <si>
     <t xml:space="preserve">Das Verfahren existiert, entspricht Best Practices, ist aktuell und wird angewendet.</t>
@@ -484,55 +549,6 @@
 Rot: wesentliche Nichtkonformität</t>
   </si>
   <si>
-    <t xml:space="preserve">Prüfung aller Einrichtungskategorien in Anlage 1 und Anlage 2 des Umsetzungsgesetzes. Die Tabellen weichen von der NIS2 ab.
-Fällt man in die Kategorie, ist man betroffen.
-Der VDMA hat ein umfangreiches Memo zur Betroffenheit erstellt, dass für VDMA-Mitglieder kostenfrei zur Verfügung steht.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registrierung &amp; Informationen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unternehmensregistrierung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Besonders wichtige Einrichtungen, wichtige Einrichtungen sowie Domain-Name-Registry-Diensteanbieter müssen sich spätestens drei Monate nach erstmaliger oder erneuter Einstufung beim BSI registrieren. Zu übermitteln sind u. a. Name (inkl. Rechtsform und ggf. Handelsregisternummer), Anschrift und aktuelle Kontaktdaten (inkl. E-Mail-Adresse, öffentliche IP-Adressbereiche und Telefonnummern), relevanter Sektor/Branche, EU-Mitgliedstaaten der Leistungserbringung sowie zuständige Aufsichtsbehörden. Änderungen sind fristgerecht zu melden.
-DE: BSIG §33 (BGBl. I 2025 Nr. 301)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Unternehmensregistrierung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registrierungsübermittlung, Nachweise zur Einstufung der Einrichtung (Sektor/Größe), Kontaktdaten, IP-Bereiche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entscheidungen bzw. Schlussfolgerungen müssen durch die Geschäftsleitung getroffen werden und für die nationale Behörde (und den Kunden) dokumentiert werden.
-Vorbereitung entsprechender Informationen zur Registrierung für die Behörde. 
-Kontaktdaten sollten nicht personenbezogen sein, um bei Verantwortungswechsel weiterhin aktuell zu sein.
-Deutschland: das BSI Portal kommt, Beobachtung der Entwicklung notwendig.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Governance &amp; Führung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Führung / Management-Verantwortung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geschäftsleitungen besonders wichtiger Einrichtungen und wichtiger Einrichtungen sind verpflichtet, die nach BSIG § 30 erforderlichen Risikomanagementmaßnahmen umzusetzen und deren Umsetzung zu überwachen. Bei Pflichtverletzung können sie nach BSIG § 38 haftungsrechtlich in Anspruch genommen werden.
-DE: BSIG §38, §30 (BGBl. I 2025 Nr. 301)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Führung #Management_Verpflichtung ISO 27001/27002: Basic requirement for an ISMS in general; Chapter 5 "Leadership"; Kapitel 6 „Planung“ / 6.1; Chapter 8 "Operation"; Chapter 9 „Bewertung der Leistung“; Kapitel 10 „Verbesserung“</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Von der Leitung genehmigte Richtlinien, ISMS-Geltungsbereich, Protokolle aus Management-Reviews, Schulungsnachweise</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ergebnisse der Untersuchungen und Risikoprüfungen, z.B. externe Pentests, müssen aktiv betrachtet und entsprechend der Empfehlungen umgesetzt werden. Ggf. kann das auch das Abschalten von Systemen beinhalten.
 Es müssen ausreichend Ressourcen bereitgestellt werden. Dabei ist daran zu denken, dass die Maßnahmen nicht nur einmalige, sondern auch wiederkehrende Betreuung benötigen.</t>
   </si>
@@ -548,6 +564,17 @@
   </si>
   <si>
     <t xml:space="preserve">#Schulung_und_Sensibilisierung ISO 27001/27002: Chapter 7.2 "Competence"; Chapter 7.3 "Awareness"; A.6.3 Sensibilisierung, Ausbildung und Schulung zur Informationssicherheit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protokolle aus Management-Reviews, Schulungsnachweise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schulungen der Geschäftsleitung sind durchgeführt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grün: Schulungen durchgeführt
+Orange: Schulungen sind geplant
+Rot: Schulungen sind nicht geplant und nicht durchgeführt</t>
   </si>
   <si>
     <t xml:space="preserve">Dokumentierte Schulung der Geschäftsleitung
@@ -576,11 +603,10 @@
   </si>
   <si>
     <t xml:space="preserve">kontinuierliche Marktanalyse hinsichtlich der eigenen Systeme und Applikationen sowie Pflegen einer Übersicht der eingesetzten Anwendungen und deren Versionen, verbunden mit dem Supportzustand:
- (unterstützt (Supportzeirraum)/abgekündigt/veraltet/...).
+ (unterstützt (Supportzeitraum)/abgekündigt/veraltet/...).
 Pflege einer Übersicht der möglichen Risikomaßnahmen, verbunden mit der Umsetzungsempfehlung auf Basis der Risiken und Kosten für das eigene Unternehmen
-Sicherheitsniveau bei KMU entsprechend unterhalb von ISO 27001 ansiedeln. Auf jeden Fall keine Pflicht zur Umsetzung der ISO27001 oder ähnlicher High-Level-Standards. Keine Pflicht, ein NIS2-Zertifikat vorzulegen.
-Kunden verlangen Informationen über den Status bezüglich NIS2, da kann ein Zertifikat helfen, die Fragen abzukürzen.
-Empfehlung: Als Basis können Checklisten o.ä., die bereits Risikobetrachtungen enthalten, genutzt werden oder Leitfäden bzw. Standards zur Umsetzung eines individuellen Risikomanangements. Für eine kontinuierliche Betrachtung sollte ein geeigneter lokaler Partner einbezogen werden (z.B. das IT Systemhaus). Dieser Partner sollte selbst die NIS2-Anforderungen umsetzen müssen bzw. umgesetzt haben.</t>
+Kunden verlangen Informationen über den Status bezüglich NIS 2. Zertifizierungen werden möglich sein.
+Empfehlung für Nachweise: Als Basis können Checklisten o.ä., die bereits Risikobetrachtungen enthalten, genutzt werden oder Leitfäden bzw. Standards zur Umsetzung eines individuellen Risikomanagements. Für eine kontinuierliche Betrachtung sollte ein geeigneter lokaler Partner einbezogen werden (z.B. das IT Systemhaus mit speziellem NIS-2-Wissen). </t>
   </si>
   <si>
     <t xml:space="preserve">Best Practice / Standards</t>
@@ -599,7 +625,10 @@
     <t xml:space="preserve">#Allgemeiner_ISO_Verweis #IEC_27000_Reihe ISO 27001/27002: All controls with regards to the named threats</t>
   </si>
   <si>
-    <t xml:space="preserve">Standards/Kataloge mit dem Bezug zum Allgefahrenansatz nutzen, hier wird ISO 27001, BSI-Grundschutz und TISAX gut passen
+    <t xml:space="preserve">Richtlinien, Verfahren, Aufzeichnungen und Protokolle (Logs) als Nachweis für Umsetzung und Betrieb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standards/Kataloge mit dem Bezug zum Allgefahrenansatz nutzen, hier kann ISO 27001, BSI-Grundschutz und TISAX genutzt werden.
 Für Betriebssicherheit die TRBS 115-1 beachten: https://www.baua.de/DE/Angebote/Regelwerk/TRBS/TRBS-1115-Teil-1.html, 
 KMU-gerecht sind unter anderem
 VDS 1000: https://www.kiss-nis2.de/doku.php
@@ -609,11 +638,11 @@
     <t xml:space="preserve">3.2.6</t>
   </si>
   <si>
-    <t xml:space="preserve">Richtlinien</t>
+    <t xml:space="preserve">Richtlinien zur Risikoanalyse</t>
   </si>
   <si>
     <t xml:space="preserve">Richtlinien zur Risikoanalyse und zur Sicherheit von Informationssystemen
-DE: BSIG §30 (BGBl. I 2025 Nr. 301)</t>
+DE: BSIG §30 Abs. 2 Satz 2 (BGBl. I 2025 Nr. 301)</t>
   </si>
   <si>
     <t xml:space="preserve">#Richtlinien #Risikomanagement ISO 27001/27002: Kapitel 5 „Führung“; Chapter 6.1 "Actions to address risks and opportunities"; A.5.1 „Richtlinien zur Informationssicherheit“</t>
@@ -623,9 +652,9 @@
 * Ausmaß der Risikoexposition 
 * die Größe des Unternehmens
 * die Eintrittswahrscheinlichkeit
-* die Schadeshöhe
+* die Schadenshöhe
 * die Auswirkungen auf die Gesellschaft/Wirtschaft
-Es ist zu erwarten, dass Kunden dieses Konzept anfragen. Eine vorgefertigte Antwort sollte hierzu parat liegen. Anfragen sind zu erwarten seitens Sales, IT-Betrieb, Wartung/Instandhaltung für z.B. Rechte-/Rollenkonzept, Zugriffsschutz, etc.</t>
+Es ist zu erwarten, dass Kunden nach dem NIS 2 Risikokonzept anfragen. Eine vorgefertigte Antwort sollte hierzu parat liegen. Anfragen sind zu erwarten seitens Sales, IT-Betrieb, Wartung/Instandhaltung für z.B. Rechte-/Rollenkonzept, Zugriffsschutz, etc.</t>
   </si>
   <si>
     <t xml:space="preserve">3.2.7</t>
@@ -635,16 +664,15 @@
   </si>
   <si>
     <t xml:space="preserve">Behandlung von Sicherheitsvorfällen
-DE: BSIG §30 (BGBl. I 2025 Nr. 301)</t>
+DE: BSIG §30 Abs. 2 Satz 2  (BGBl. I 2025 Nr. 301)</t>
   </si>
   <si>
     <t xml:space="preserve">#Vorfallmanagement ISO 27001/27002: A.5.24 "Information security incident management planning and preparation"; A.5.26 "Response to information security incident"; A.5.27 "Learning from information security incidents"</t>
   </si>
   <si>
-    <t xml:space="preserve">Übung der Einordnung von Vorfällen (Störung, Krise, Security-Vorfall) auf Basis zB. Cyber-Sicherheitsnetzwerk des BSI
-Übung der Ermittlung von erheblichen Sicherheitsvorfällen, z.B. mit Use Cases
-Übung von relevanten möglichen Vorfällen
-Dokumentierung der Meldewege, Kontakte auch offline, um Zugriff darauf zu erhalten, wenn die Systeme nicht verfügbar sind</t>
+    <t xml:space="preserve">Übung der Einordnung von Vorfällen (Störung, Krise, Security-Vorfall) auf Basis z.B. Cyber-Sicherheitsnetzwerk des BSI
+Übung der Ermittlung von erheblichen Sicherheitsvorfällen, z.B. mit Use Cases, Tabletop-Übungen
+Dokumentierung der Meldewege, Kontakte auch offline, um Zugriff darauf zu erhalten, wenn die Systeme nicht verfügbar sind.</t>
   </si>
   <si>
     <t xml:space="preserve">3.2.8</t>
@@ -654,16 +682,19 @@
   </si>
   <si>
     <t xml:space="preserve">Business-Continuity, z. B. Backup-Management und Disaster Recovery, sowie Krisenmanagement
-DE: BSIG §30 (BGBl. I 2025 Nr. 301)</t>
+DE: BSIG §30 Abs. 2 Satz 3 (BGBl. I 2025 Nr. 301)</t>
   </si>
   <si>
     <t xml:space="preserve">#Business_Continuity_Management ISO 27001/27002: 5.29 Information security during disruption; 5.30 ICT readiness for business continuity; 8.13 Information backup; 8.14 Redundancy of information processing facilities</t>
   </si>
   <si>
+    <t xml:space="preserve">Risikobewertungsberichte, ISMS-Dokumentation, SoA (Statement of Applicability), Audits, Risikobehandlungspläne, Backup-Pläne</t>
+  </si>
+  <si>
     <t xml:space="preserve">Erarbeitung eines Backupkonzepts für relevante IT-Systeme, insbesondere Finanzbuchhaltung, Produktionsdaten, Konstruktionsdaten
-Backup von Cloud-only Systemen bei Dienstleistern nicht als gegeben annehmen - Zugriff auf ein Backup musss immer möglich sein.
-Prüfung, ob Redundanzen von kritischen Systemen oder Komponenten sinnvoll erscheinen
-Erarbeitung eines Wiederherstellungsplans und Übung der Wiederherstellung bei Einrichtung (Funktionsprüfung, klappt die Wiederherstellung). Regelmäßige Prüfung ist empfohlen.
+Backup von Cloud-only Systemen bei Dienstleistern nicht als gegeben annehmen - Zugriff auf ein Backup muss immer möglich sein.
+Prüfung, ob Redundanzen von kritischen Systemen oder Komponenten sinnvoll erscheinen.
+Erarbeitung eines Wiederherstellungsplans und Übung der Wiederherstellung bei Einrichtung (Funktionsprüfung Einzeldatenwiederherstellung, Desaster-Recovery). Regelmäßige Prüfungen durchführen und dokumentieren.
 Notfallhandbuch pflegen
 Melde- und Auskunftspflicht bei der Notfallkommunikation mit einplanen, da Nichterreichbarkeit des Kontakts ein Bußgeld nach sich ziehen kann.</t>
   </si>
@@ -675,39 +706,42 @@
   </si>
   <si>
     <t xml:space="preserve">Die Lieferkette ist abzusichern; hierzu gehören sicherheitsbezogene Aspekte der Beziehungen zu unmittelbaren Anbietern oder Diensteanbietern (z. B. Auswahlkriterien, vertragliche Mindestanforderungen, Überwachung sowie Incident-Kommunikation).
-DE: BSIG §30 Abs. 2 Nr. 4 (BGBl. I 2025 Nr. 301)</t>
+DE: BSIG §30 Abs. 2 Satz 4 (BGBl. I 2025 Nr. 301)</t>
   </si>
   <si>
     <t xml:space="preserve">#Lieferkettensicherheit ISO 27001/27002: #Lieferantenbeziehungen_security; A.5.19 Informationssicherheit in Lieferantenbeziehungen; A.5.20 Addressing information security within supplier agreements; A.5.21 Managing information security in the ICT supply chain; A.5.22 Monitoring, review and change management of supplier services; A.5.23 Informationssicherheit bei Nutzung von Cloud-Diensten</t>
   </si>
   <si>
-    <t xml:space="preserve">Richtlinie/Prozess etablieren, der eine angemessene Lieferantenauskunft z.B. ISO 27001/TISAX/IEC 62443-4-1 einfordert. 
-Es sollte dazu kein eigenentwickelter Fragebogen genommen werden, sondern ein standardisierter Fragebogen. Der VDMA hat diesen veröffentlicht zur Nutzung auch über den Maschinenbau hinaus.
+    <t xml:space="preserve">Richtlinie/Prozess etablieren, der eine angemessene Lieferantenauskunft einfordert,  z.B. ISO 27001/TISAX/IEC 62443-4-1 
+Als Fragebogen kann der standardisierte Fragebogen aus UP-KRITIS oder VDMA genutzt werden:
+https://vdma.eu/de/viewer/-/v2article/render/82349740 
+https://www.bsi.bund.de/SharedDocs/Downloads/DE/BSI/KRITIS/UPK/upk-anforderungen-lieferanten.html 
 Für Maschinenbauer als Zulieferer würden ggf. auch folgende Fragen ausreichen:
 1. Fallen Sie in den Anwendungsbereich der NIS2 bzw. des NIS2UmsuCG?
 2. Haben Sie eine Zertifizierung nach ISO27001 oder TISAX o.ä.?
 3. Wenn bei einer der beiden Fragen NEIN, erläutern Sie bitte Ihre Verfahren und Prozesse zur Informationssicherheit.
+Kommunikation bei Incidents:
 Eine security.txt aus Textdatei auf der Homepage ist einfach umzusetzen und sollte daher auch bei KMU umgesetzt werden.</t>
   </si>
   <si>
     <t xml:space="preserve">3.2.10</t>
   </si>
   <si>
-    <t xml:space="preserve">Sichere Entwicklung</t>
+    <t xml:space="preserve">Sichere Beschaffung und Entwicklung</t>
   </si>
   <si>
     <t xml:space="preserve">Sicherheitsmaßnahmen bei Erwerb, Entwicklung und Wartung von informationstechnischen Systemen, Komponenten und Prozessen – einschließlich Management und Offenlegung von Schwachstellen – sind festzulegen und umzusetzen.
-DE: BSIG §30 Abs. 2 Nr. 5 (BGBl. I 2025 Nr. 301)</t>
+DE: BSIG §30 Abs. 2 Satz 5 (BGBl. I 2025 Nr. 301)</t>
   </si>
   <si>
     <t xml:space="preserve">#Sichere_Entwicklung ISO 27001/27002: A.5.7 Threat intelligence; A.5.6 Contact with special interest groups; A.8.25 Secure development life cycle; A.8.26 Application security requirements; A.8.27 Secure system architecture and engineering principles; A.8.28 Secure coding; A.8.29 Security testing in development and acceptance; A.8.30 Outsourced development; A.8.31 Separation of development, test and production environments; A.8.32 Change management; A.8.33 Test information; A.8.34 Protection of information systems during audit testing</t>
   </si>
   <si>
     <t xml:space="preserve">Es sollte eine konkrete Auskunft zum End of Support (EOS) eingefordert werden. Beschaffungsrichtlinie für IT/OT-Systeme mit Blick auf Cyber-Security.
-Entscheidungen für Systeme/Lösungen sollte bei den Prozessverantwortlichen verbleiben (Security ist kein Selbstzweck).
+Entscheidungen für Systeme/Lösungen sollte bei den Prozessverantwortlichen verbleiben, die zentrale Security-Vorgaben beachten müssen.
 Etablierung eines Secure-Gateways für externe Zugriffe, über das der Zugriff von Dienstleistern gezielt gesteuert und dokumentiert/protokolliert werden kann.
 In Ausschreibungen von IT/OT festlegen, dass das bereitgestellte Secure-Gateway vom Dienstleister genutzt werden muss.
-Hersteller/Lieferanten sollte konkrete Informationen zum Schwachstellenmanagement und den Informationswegen zum Erwerbszeitpunkt offenlegen (z.B. in der Benutzeranleitung oder Dokumentation zum Produkt).
+Hersteller/Lieferanten sollte konkrete Informationen zum Schwachstellenmanagement und den Informationswegen zum Erwerbszeitpunkt offenlegen (z.B. in der Benutzeranleitung oder Dokumentation zum Produkt → ist im CRA und EU-MVO festgelegt, aber erst ab 2027 verpflichtend).
 Vor Inbetriebnahme sollte (Im Idealfall) ein Wirksamkeitstest durchgeführt werden (SAT, FAT) um den Stand der Technik zu dokumentieren. Das Ergebnis sollte in etwa mit dem Ergebnis des Lieferantenscans übereinstimmen.</t>
   </si>
   <si>
@@ -718,13 +752,13 @@
   </si>
   <si>
     <t xml:space="preserve">Richtlinien und Verfahren zur Bewertung der Wirksamkeit der Cybersicherheits-Risikomanagementmaßnahmen
-DE: BSIG §30 (BGBl. I 2025 Nr. 301)</t>
+DE: BSIG §30 Abs. 2 Satz 6 (BGBl. I 2025 Nr. 301)</t>
   </si>
   <si>
     <t xml:space="preserve">#Risikomanagement ISO 27001/27002: Chapter 9 "Performance evaluation"; A.5.35 Independent review of information security; A.5.36 Compliance with policies, rules and standards for information security</t>
   </si>
   <si>
-    <t xml:space="preserve">KPI's zur kontrollierten und standardisierten Vorgehensweise bilden, z.B. Anteil der geschulten Mitarbeiter, Passwortqualität, offene (kritische) Tickets, Anzahl Schwachstellen, Anzahl der erfolgreich wiederhegestellten Dateien aus dem Backup, Anzahl der erfolgreich wiederhergestellten Servern aus dem Backup etc.</t>
+    <t xml:space="preserve">KPI's zur kontrollierten und standardisierten Vorgehensweise bilden, z.B. Anteil der geschulten Mitarbeiter, Passwortqualität, offene (kritische) Tickets, Anzahl Schwachstellen, Anzahl der erfolgreich wiederhergestellten Dateien aus dem Backup, Anzahl der erfolgreich wiederhergestellten Servern aus dem Backup etc.</t>
   </si>
   <si>
     <t xml:space="preserve">3.2.12</t>
@@ -737,8 +771,11 @@
     <t xml:space="preserve">#Schulung_und_Sensibilisierung ISO 27001/27002: A.6.3 Sensibilisierung, Ausbildung und Schulung zur Informationssicherheit</t>
   </si>
   <si>
+    <t xml:space="preserve">Risikobewertungsberichte, ISMS-Dokumentation, SoA (Statement of Applicability), Audits, Risikobehandlungspläne, Schulungspläne</t>
+  </si>
+  <si>
     <t xml:space="preserve">Implementation und Dokumentation der Basismaßnahmen
-* Unterbindung eines anonymen Zugriffs auf Unternehmendaten
+* Unterbindung eines anonymen Zugriffs auf Unternehmensdaten
 * Abgestuftes Nutzerkonzept
 * Passwortrichtlinie
 * Änderung von Defaultpasswörtern, auch bei APIs / Software
@@ -765,7 +802,8 @@
   </si>
   <si>
     <t xml:space="preserve">Soweit möglich sollten Datenübertragungen nur mit Transportverschlüsselungen nach Stand der Technik erfolgen.
-Veraltete kryptographische Verfahren müssen aussortiert werden (z.B. MD5, TLS 1.0, TLS1.1, SMBv1, SNMPv1,2).</t>
+Veraltete kryptographische Verfahren müssen aussortiert werden (z.B. MD5, TLS 1.0, TLS1.1, SMBv1, SNMPv1,2).
+Dokumentation der eingesetzten Verfahren für ein Life-Cycle- und Security-Management</t>
   </si>
   <si>
     <t xml:space="preserve">3.2.14</t>
@@ -781,9 +819,9 @@
     <t xml:space="preserve">#Personal_Sicherheit ISO 27001/27002: A.6 People controls; #Personal_sicherheit</t>
   </si>
   <si>
-    <t xml:space="preserve">Prüfung eines Polizeilichen Führungszeugnisses bei den besonders exponierten Personenkreisen, Prüfung von Sanktionslisten, Prüfung des Lebenslaufs
-Vetragliche Vereinbarung / Verpflichtung der Mitarbeiter auf Security, 
-Onboarding bezüglich geltender Security-Richtlinien, Sanktionierung, Durchsetzung von Maßnahmen bei Vorfällen, ggf. Offboarding bei Vertragsende
+    <t xml:space="preserve">Anfordern eines Polizeilichen Führungszeugnisses bei den besonders exponierten Personenkreisen, Prüfung von Sanktionslisten, Prüfung des Lebenslaufs.
+Vertragliche Vereinbarung/Verpflichtung der Mitarbeiter auf Security.
+Onboarding bezüglich geltender Security-Richtlinien, Sanktionierung, Durchsetzung von Maßnahmen bei Vorfällen, ggf. Offboarding bei Vertragsende.
 Gesonderte Verpflichtung bei mobilen Arbeiten (HomeOffice, Mobiltelefon) und Anmeldung an Fremdgeräten (keine Nutzung von Firmenaccounts)</t>
   </si>
   <si>
@@ -827,8 +865,7 @@
     <t xml:space="preserve">Authentifizierung</t>
   </si>
   <si>
-    <t xml:space="preserve">der Einsatz von Multi-Faktor-Authentifizierung oder kontinuierlichen Authentifizierungslösungen, abgesicherter Sprach-, Video- und Text-
-kommunikation sowie abgesicherter Notfall-Kommunikationssysteme innerhalb der Einrichtung, soweit angemessen.
+    <t xml:space="preserve">Verwendung von Lösungen zur Multi-Faktor-Authentifizierung oder kontinuierlichen Authentifizierungslösungen […] soweit angemessen.
 DE: BSIG §30 Abs. 2 Nr. 10 (BGBl. I 2025 Nr. 301)</t>
   </si>
   <si>
@@ -836,16 +873,26 @@
   </si>
   <si>
     <t xml:space="preserve">M365 bzw. O365 nur mit MFA Anmeldung bei nicht gemanageten Geräten
-MFA: keine Nutzung von unsicheren Zweitmöglichkeiten, zB. "Rautetaste".
-Bei Anwendungen MFA wenn möglich einrichten bzw. dem Mitarbeiter ermöglichen
+MFA: keine Nutzung von unsicheren Zweitmöglichkeiten, z.B. "Rautetaste".
+Bei Zugriff auf Anwendungen MFA,wenn möglich verpflichtend, einrichten
 Nutzung einer zugelassenen Authenticator-App mit Leitlinie festlegen
 Nutzung von MFA nur auf Unternehmenshardware
 VPN-Einwahl nur MFA, z.B. Clientzertifikat plus Passwort, Hardwaretoken
 Prüfung der Nutzung von Passkey-Verfahren als Alternative zu etablierten Verfahren
-Vermeidung der Speicherung von biometrischen Daten</t>
+Vermeidung der Speicherung von biometrischen Daten außerhalb besonders geschützter Systeme.</t>
   </si>
   <si>
     <t xml:space="preserve">3.2.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kommunikation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verwendung [… ] gesicherte Sprach-, Video- und Textkommunikation [...] soweit angemessen.
+DE: BSIG §30 Abs. 2 Nr. 10 (BGBl. I 2025 Nr. 301)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Kommunikation ISO 27001/27002: 5.14 Information Transfer, A.8.20 Netzwerksicherheit, A.8.21 Sicherheit der Netzwerkdienste</t>
   </si>
   <si>
     <t xml:space="preserve">Telefonie auf IP-Telefonie mit Verschlüsselung umstellen, richtige Einstellungen der Videokonferenz-Systeme (organisatorische Maßnahmen), so dass Gäste nicht unkontrolliert teilnehmen können. 
@@ -857,9 +904,18 @@
     <t xml:space="preserve">3.2.19</t>
   </si>
   <si>
+    <t xml:space="preserve">Notfall-Kommunikation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verwendung [...]  abgesicherter Notfall-Kommunikationssysteme innerhalb der Einrichtung, soweit angemessen.
+DE: BSIG §30 Abs. 2 Nr. 10 (BGBl. I 2025 Nr. 301)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Kommunikation ISO 27001/27002: A.5.29 Informationssicherheit während einer Störung, A.5.30 IKT-Bereitschaft für Geschäftskontinuität</t>
+  </si>
+  <si>
     <t xml:space="preserve">Notfallsystem überlegen, das bei Ausfall des Haupt-Systems genutzt werden kann, z.B. ein freies System (Jitsi, Signal). 
 Einen virtuellen Raum im Notfallhandbuch definieren, in dem sich alle Notfall-Manager treffen können.
-Der VDMA empfiehlt die Festlegung auf ein externes Notfall-Kommunikationssystem.
 In der Notfallübung sollten die Systeme angemessen getestet werden. (Neue) Mitarbeiter im Notfallteam sollten sich mit dem System vertraut machen.</t>
   </si>
   <si>
@@ -879,7 +935,7 @@
     <t xml:space="preserve">#Einsatz_zertifizierter_Produkte #Zukunft #optional ISO 27001/27002: A.5.19 Informationssicherheit in Lieferantenbeziehungen</t>
   </si>
   <si>
-    <t xml:space="preserve">Richtlinie zur Schwachstellen-Offenlegung, Schwachstellenaufzeichnungen, Nachweise Patch-Management, Penetrationstestberichte</t>
+    <t xml:space="preserve">Richtlinie zur Schwachstellen-Offenlegung, Schwachstellenaufzeichnungen, Nachweise Patch-Management, Penetrationstestberichte, Zertifizierungen der Systeme</t>
   </si>
   <si>
     <t xml:space="preserve">Die Entwicklung der Rechtsverordnung beobachten. Schwerpunkt liegt zur Zeit bei 5G und Software-Produkten.</t>
@@ -917,7 +973,7 @@
   </si>
   <si>
     <t xml:space="preserve">Kunden-, Behörden-, Versicherungs- und Lieferantendaten so vorhalten, dass sie auch bei einem Ransomware-Angriff abrufbar sind.
-Prozesse vorsehen, die eine Information an interessierte Kreise ermöglichen</t>
+Prozesse vorsehen, die eine Information an interessierte Kreise ermöglichen.</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.1</t>
@@ -927,11 +983,12 @@
 DE: BSIG §13 (BGBl. I 2025 Nr. 301)</t>
   </si>
   <si>
-    <t xml:space="preserve">#Vorfallmanagement</t>
+    <t xml:space="preserve">#Vorfallmanagement ISO 27001/27002: A.5.5 Beziehungen zu den Behörden</t>
   </si>
   <si>
     <t xml:space="preserve">Geschäftsführung über die Problematik in Kenntnis setzen.
-Meldung von BSI und Dritten ernst nehmen (und tätig werden)</t>
+Meldung von BSI und Dritten ermöglichen und Reaktionen garantieren. Ggf. über security.txt auf Webseite.
+Kommunikation mit den Behörden etablieren und regelmäßig Informationen über diese Kanäle abrufen.</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.2</t>
@@ -949,7 +1006,7 @@
 Regelmäßige Prüfung, ob die öffentlich erreichbaren Systeme auch notwendigerweise erreichbar sein müssen.
 Penetration Tests bzw. Schwachstellenprüfung bei neuen Produkten/Diensten, die relevant für die Geschäftsprozesse sind und/oder mind. jährliche Prüfung des externen Angreifbarkeit (Schwachstellen und Konfigurationsfehler in öffentlich erreichbaren Systemen) sowie anlassbezogen. -&gt; "External Attack Surcface"
 OT: Neue Maschinen sollten bei Inbetriebnahme geprüft werden.
-OT2: Aktive Schwachstellenscans in der Produktionsumgebung können zu einem (dauerhaften) Ausfall der OT-Systeme führen und sollten nur nach Absprache mit den Lieferanten durchgeführt werden</t>
+Warnung bei OT-Schwachstellenprüfung: Aktive Schwachstellenscans in der Produktionsumgebung können zu einem (dauerhaften) Ausfall der OT-Systeme führen und sollten nur nach Absprache mit den Produktionsverantwortlichen und den Lieferanten durchgeführt werden.</t>
   </si>
   <si>
     <t xml:space="preserve">Aufsicht &amp; Durchsetzung</t>
@@ -981,10 +1038,10 @@
     <t xml:space="preserve">#Korrekturmaßnahmen ISO 27001/27002: Kapitel 10 „Verbesserung“</t>
   </si>
   <si>
-    <t xml:space="preserve">Dokumentation der Maßnahmen in dieser Excel-Tabelle.
+    <t xml:space="preserve">Dokumentation der Maßnahmen (in dieser Excel-Tabelle genügt).
 Vorhalten entsprechender Nachweise (z.B. Schulung, Zertifikate, Auditberichte).
-Regelmäßige Überprüfung der Excel-Tabelle sicherstellen. 
-Sollte bereits ein ISMS in Betrieb sein, sollten die Maßnahmen im ISMS dokumentiert werden.</t>
+Regelmäßige Überprüfung der Maßnahmen sicherstellen. 
+Sollte bereits ein ISMS in Betrieb sein, sollten die Maßnahmen im ISMS dokumentiert werden. Ggf. ISO 9001 Management-System nutzen, falls vorhanden.</t>
   </si>
 </sst>
 </file>
@@ -1381,8 +1438,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1472,7 +1529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="125.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="135.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1498,16 +1555,16 @@
         <v>26</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="92.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -1515,31 +1572,31 @@
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="100.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1550,66 +1607,66 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="216.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="284.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="K6" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1620,69 +1677,69 @@
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="152.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="3" t="s">
+      <c r="D8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="I8" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="94.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -1690,31 +1747,31 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1725,31 +1782,31 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1760,31 +1817,31 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1795,31 +1852,31 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1830,31 +1887,31 @@
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1865,31 +1922,31 @@
         <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="J14" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1900,31 +1957,31 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1935,31 +1992,31 @@
         <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1970,31 +2027,31 @@
         <v>11</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2005,31 +2062,31 @@
         <v>11</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2040,31 +2097,31 @@
         <v>11</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2075,31 +2132,31 @@
         <v>11</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2110,31 +2167,31 @@
         <v>11</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2145,31 +2202,31 @@
         <v>11</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="125.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2180,34 +2237,34 @@
         <v>11</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="103.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="106" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
@@ -2215,34 +2272,34 @@
         <v>11</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="103.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="117.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
@@ -2250,34 +2307,34 @@
         <v>11</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="227.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="257.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>11</v>
       </c>
@@ -2285,31 +2342,31 @@
         <v>11</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="92.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2320,34 +2377,34 @@
         <v>11</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="114.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="117.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
         <v>11</v>
       </c>
@@ -2355,35 +2412,39 @@
         <v>11</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D28" s="6" t="n">
         <v>7</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K3" r:id="rId2" display="Entscheidungen bzw. Schlussfolgerungen müssen durch die Geschäftsleitung getroffen werden und für die nationale Behörde (und den Kunden) dokumentiert werden.&#10;&#10;Vorbereitung entsprechender Informationen zur Registrierung für die Behörde. &#10;Kontaktdaten sollten nicht personenbezogen sein, um bei Verantwortungswechsel weiterhin aktuell zu sein.&#10;&#10;Die Registrierung erfolgt in zwei Stufen: https://www.bsi.bund.de/DE/Themen/Regulierte-Wirtschaft/NIS-2-regulierte-Unternehmen/NIS-2-Pflichten/nis-2-pflichten_node.html "/>
+    <hyperlink ref="K7" r:id="rId3" display="Standards/Kataloge mit dem Bezug zum Allgefahrenansatz nutzen, hier kann ISO 27001, BSI-Grundschutz und TISAX genutzt werden.&#10;&#10;Für Betriebssicherheit die TRBS 115-1 beachten: https://www.baua.de/DE/Angebote/Regelwerk/TRBS/TRBS-1115-Teil-1.html, &#10;&#10;KMU-gerecht sind unter anderem&#10;VDS 1000: https://www.kiss-nis2.de/doku.php&#10;Grundschutz Plus: https://security4kmu.de/"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2391,6 +2452,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/storage/app/repository/NIS2.de.xlsx
+++ b/storage/app/repository/NIS2.de.xlsx
@@ -485,8 +485,7 @@
   </si>
   <si>
     <t xml:space="preserve">Prüfung aller Einrichtungskategorien in Anlage 1 und Anlage 2 des Umsetzungsgesetzes. Die Tabellen weichen von der NIS2 ab.
-Fällt man in die Kategorie, ist man betroffen.
-Der VDMA hat ein umfangreiches Memo zur Betroffenheit erstellt, dass für VDMA-Mitglieder kostenfrei zur Verfügung steht.</t>
+Fällt man in die Kategorie, ist man betroffen.</t>
   </si>
   <si>
     <t xml:space="preserve">Registrierung &amp; Informationen</t>
@@ -1438,8 +1437,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1494,7 +1493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="92.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="94.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -1704,7 +1703,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="152.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="148.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -1739,7 +1738,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="94.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="92.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -2264,7 +2263,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="106" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="103.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
@@ -2299,7 +2298,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="117.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="103.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
@@ -2334,7 +2333,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="257.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="250.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>11</v>
       </c>
@@ -2404,7 +2403,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="117.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="114.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
         <v>11</v>
       </c>

--- a/storage/app/repository/NIS2.de.xlsx
+++ b/storage/app/repository/NIS2.de.xlsx
@@ -518,7 +518,8 @@
     <t xml:space="preserve">Entscheidungen bzw. Schlussfolgerungen müssen durch die Geschäftsleitung getroffen werden und für die nationale Behörde (und den Kunden) dokumentiert werden.
 Vorbereitung entsprechender Informationen zur Registrierung für die Behörde. 
 Kontaktdaten sollten nicht personenbezogen sein, um bei Verantwortungswechsel weiterhin aktuell zu sein.
-Die Registrierung erfolgt in zwei Stufen: https://www.bsi.bund.de/DE/Themen/Regulierte-Wirtschaft/NIS-2-regulierte-Unternehmen/NIS-2-Pflichten/nis-2-pflichten_node.html </t>
+Die Registrierung erfolgt in zwei Stufen:
+https://www.bsi.bund.de/DE/Themen/Regulierte-Wirtschaft/NIS-2-regulierte-Unternehmen/NIS-2-Pflichten/nis-2-pflichten_node.html </t>
   </si>
   <si>
     <t xml:space="preserve">Governance &amp; Führung</t>
@@ -1437,8 +1438,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H3" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1493,7 +1494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="94.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="92.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -1528,7 +1529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="135.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="180.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -2441,8 +2442,7 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId2" display="Entscheidungen bzw. Schlussfolgerungen müssen durch die Geschäftsleitung getroffen werden und für die nationale Behörde (und den Kunden) dokumentiert werden.&#10;&#10;Vorbereitung entsprechender Informationen zur Registrierung für die Behörde. &#10;Kontaktdaten sollten nicht personenbezogen sein, um bei Verantwortungswechsel weiterhin aktuell zu sein.&#10;&#10;Die Registrierung erfolgt in zwei Stufen: https://www.bsi.bund.de/DE/Themen/Regulierte-Wirtschaft/NIS-2-regulierte-Unternehmen/NIS-2-Pflichten/nis-2-pflichten_node.html "/>
-    <hyperlink ref="K7" r:id="rId3" display="Standards/Kataloge mit dem Bezug zum Allgefahrenansatz nutzen, hier kann ISO 27001, BSI-Grundschutz und TISAX genutzt werden.&#10;&#10;Für Betriebssicherheit die TRBS 115-1 beachten: https://www.baua.de/DE/Angebote/Regelwerk/TRBS/TRBS-1115-Teil-1.html, &#10;&#10;KMU-gerecht sind unter anderem&#10;VDS 1000: https://www.kiss-nis2.de/doku.php&#10;Grundschutz Plus: https://security4kmu.de/"/>
+    <hyperlink ref="K7" r:id="rId2" display="Standards/Kataloge mit dem Bezug zum Allgefahrenansatz nutzen, hier kann ISO 27001, BSI-Grundschutz und TISAX genutzt werden.&#10;&#10;Für Betriebssicherheit die TRBS 115-1 beachten: https://www.baua.de/DE/Angebote/Regelwerk/TRBS/TRBS-1115-Teil-1.html, &#10;&#10;KMU-gerecht sind unter anderem&#10;VDS 1000: https://www.kiss-nis2.de/doku.php&#10;Grundschutz Plus: https://security4kmu.de/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2451,6 +2451,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId4"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/storage/app/repository/NIS2.de.xlsx
+++ b/storage/app/repository/NIS2.de.xlsx
@@ -419,7 +419,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="166">
   <si>
     <t xml:space="preserve">Rahmenwerk</t>
   </si>
@@ -460,7 +460,7 @@
     <t xml:space="preserve">Anwendungsbereich &amp; Geltungsbereich</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1</t>
+    <t xml:space="preserve">1.1</t>
   </si>
   <si>
     <t xml:space="preserve">Anwendbarkeit</t>
@@ -491,7 +491,7 @@
     <t xml:space="preserve">Registrierung &amp; Informationen</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.1</t>
+    <t xml:space="preserve">1.2</t>
   </si>
   <si>
     <t xml:space="preserve">Unternehmensregistrierung</t>
@@ -525,7 +525,7 @@
     <t xml:space="preserve">Governance &amp; Führung</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.2</t>
+    <t xml:space="preserve">2.1</t>
   </si>
   <si>
     <t xml:space="preserve">Führung / Management-Verantwortung</t>
@@ -553,7 +553,7 @@
 Es müssen ausreichend Ressourcen bereitgestellt werden. Dabei ist daran zu denken, dass die Maßnahmen nicht nur einmalige, sondern auch wiederkehrende Betreuung benötigen.</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.3</t>
+    <t xml:space="preserve">2.2</t>
   </si>
   <si>
     <t xml:space="preserve">Schulung und Sensibilisierung</t>
@@ -586,7 +586,7 @@
     <t xml:space="preserve">Cybersicherheits-Risikomanagementmaßnahmen</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.4</t>
+    <t xml:space="preserve">3.1</t>
   </si>
   <si>
     <t xml:space="preserve">ISMS, risikobasierter Ansatz, Stand der Technik</t>
@@ -612,7 +612,7 @@
     <t xml:space="preserve">Best Practice / Standards</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.5</t>
+    <t xml:space="preserve">3.2.1</t>
   </si>
   <si>
     <t xml:space="preserve">Allgemeiner Verweis auf ISO/IEC-27000-Reihe</t>
@@ -635,7 +635,7 @@
 Grundschutz Plus: https://security4kmu.de/</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.6</t>
+    <t xml:space="preserve">3.2.2</t>
   </si>
   <si>
     <t xml:space="preserve">Richtlinien zur Risikoanalyse</t>
@@ -657,7 +657,7 @@
 Es ist zu erwarten, dass Kunden nach dem NIS 2 Risikokonzept anfragen. Eine vorgefertigte Antwort sollte hierzu parat liegen. Anfragen sind zu erwarten seitens Sales, IT-Betrieb, Wartung/Instandhaltung für z.B. Rechte-/Rollenkonzept, Zugriffsschutz, etc.</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.7</t>
+    <t xml:space="preserve">3.2.3</t>
   </si>
   <si>
     <t xml:space="preserve">Management von Sicherheitsvorfällen</t>
@@ -675,7 +675,7 @@
 Dokumentierung der Meldewege, Kontakte auch offline, um Zugriff darauf zu erhalten, wenn die Systeme nicht verfügbar sind.</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.8</t>
+    <t xml:space="preserve">3.2.4</t>
   </si>
   <si>
     <t xml:space="preserve">Business-Continuity-Management (BCM)</t>
@@ -699,7 +699,7 @@
 Melde- und Auskunftspflicht bei der Notfallkommunikation mit einplanen, da Nichterreichbarkeit des Kontakts ein Bußgeld nach sich ziehen kann.</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.9</t>
+    <t xml:space="preserve">3.2.5</t>
   </si>
   <si>
     <t xml:space="preserve">Lieferkettensicherheit</t>
@@ -724,7 +724,7 @@
 Eine security.txt aus Textdatei auf der Homepage ist einfach umzusetzen und sollte daher auch bei KMU umgesetzt werden.</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.10</t>
+    <t xml:space="preserve">3.2.6</t>
   </si>
   <si>
     <t xml:space="preserve">Sichere Beschaffung und Entwicklung</t>
@@ -745,7 +745,7 @@
 Vor Inbetriebnahme sollte (Im Idealfall) ein Wirksamkeitstest durchgeführt werden (SAT, FAT) um den Stand der Technik zu dokumentieren. Das Ergebnis sollte in etwa mit dem Ergebnis des Lieferantenscans übereinstimmen.</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.11</t>
+    <t xml:space="preserve">3.2.7</t>
   </si>
   <si>
     <t xml:space="preserve">Risikomanagement</t>
@@ -761,7 +761,7 @@
     <t xml:space="preserve">KPI's zur kontrollierten und standardisierten Vorgehensweise bilden, z.B. Anteil der geschulten Mitarbeiter, Passwortqualität, offene (kritische) Tickets, Anzahl Schwachstellen, Anzahl der erfolgreich wiederhergestellten Dateien aus dem Backup, Anzahl der erfolgreich wiederhergestellten Servern aus dem Backup etc.</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.12</t>
+    <t xml:space="preserve">3.2.8</t>
   </si>
   <si>
     <t xml:space="preserve">Grundlegende Schulungen und Sensibilisierungsmaßnahmen im Bereich der Sicherheit in der Informationstechnik sind durchzuführen und regelmäßig zu aktualisieren.
@@ -788,7 +788,7 @@
 Phishing-Kampagnen sind von der Geschäftsleitung zu beauftragen, vom Betriebsrat zu genehmigen und DSGVO-konform auszuführen, den DSB frühst möglichst involvieren.</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.13</t>
+    <t xml:space="preserve">3.2.9</t>
   </si>
   <si>
     <t xml:space="preserve">Kryptographie</t>
@@ -806,7 +806,7 @@
 Dokumentation der eingesetzten Verfahren für ein Life-Cycle- und Security-Management</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.14</t>
+    <t xml:space="preserve">3.2.10</t>
   </si>
   <si>
     <t xml:space="preserve">Personal-/HR-Sicherheit</t>
@@ -825,7 +825,7 @@
 Gesonderte Verpflichtung bei mobilen Arbeiten (HomeOffice, Mobiltelefon) und Anmeldung an Fremdgeräten (keine Nutzung von Firmenaccounts)</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.15</t>
+    <t xml:space="preserve">3.2.11</t>
   </si>
   <si>
     <t xml:space="preserve">Zugriffskontrolle</t>
@@ -842,7 +842,7 @@
 Vermeidung einer flachen Netztopologie, Nutzung von VLANs</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.16</t>
+    <t xml:space="preserve">3.2.12</t>
   </si>
   <si>
     <t xml:space="preserve">Asset-Management</t>
@@ -859,7 +859,7 @@
 Das Asset Management kann die anderen Maßnahmen unterstützen, z.B. Schwachstellen/Patch Management</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.17</t>
+    <t xml:space="preserve">3.2.13</t>
   </si>
   <si>
     <t xml:space="preserve">Authentifizierung</t>
@@ -882,7 +882,7 @@
 Vermeidung der Speicherung von biometrischen Daten außerhalb besonders geschützter Systeme.</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.18</t>
+    <t xml:space="preserve">3.2.14</t>
   </si>
   <si>
     <t xml:space="preserve">Kommunikation</t>
@@ -901,7 +901,7 @@
 Leitlinie für sensible Informationen erstellen, wie diese bei der Übertragung zu sichern sind (Verschlüsselung, geeignete Kanäle (Secure Cloud))</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.19</t>
+    <t xml:space="preserve">3.2.15</t>
   </si>
   <si>
     <t xml:space="preserve">Notfall-Kommunikation</t>
@@ -922,7 +922,7 @@
     <t xml:space="preserve">Umgang mit Schwachstellen &amp; Offenlegung</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.20</t>
+    <t xml:space="preserve">3.2.16</t>
   </si>
   <si>
     <t xml:space="preserve">Einsatz zertifizierter Produkte</t>
@@ -944,7 +944,7 @@
     <t xml:space="preserve">Meldung von Sicherheitsvorfällen &amp; Benachrichtigungen</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.21</t>
+    <t xml:space="preserve">3.2.17</t>
   </si>
   <si>
     <t xml:space="preserve">Meldung/Reporting</t>
@@ -965,6 +965,9 @@
 Zeitpunkt der Kenntniserlangung dokumentieren ("innerhalb der Arbeitszeit")</t>
   </si>
   <si>
+    <t xml:space="preserve">3.2.18</t>
+  </si>
+  <si>
     <t xml:space="preserve">Im Fall eines erheblichen Sicherheitsvorfalls kann das BSI anordnen, dass Empfänger der Dienste unverzüglich über den Vorfall zu unterrichten sind, wenn die Erbringung des jeweiligen Dienstes beeinträchtigt sein könnte (ggf. auch per Veröffentlichung). Für bestimmte Sektoren bestehen zudem Pflichten, potenziell betroffene Empfänger über erhebliche Cyberbedrohungen sowie geeignete Abwehr- oder Abhilfemaßnahmen zu informieren.
 DE: BSIG §35 (BGBl. I 2025 Nr. 301)</t>
   </si>
@@ -974,9 +977,6 @@
   <si>
     <t xml:space="preserve">Kunden-, Behörden-, Versicherungs- und Lieferantendaten so vorhalten, dass sie auch bei einem Ransomware-Angriff abrufbar sind.
 Prozesse vorsehen, die eine Information an interessierte Kreise ermöglichen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.1</t>
   </si>
   <si>
     <t xml:space="preserve">Das BSI kann Warnungen und Informationen an die Öffentlichkeit oder an betroffene Kreise richten (z. B. zu Schwachstellen, Schadprogrammen, Datenverlust oder unbefugtem Datenzugriff sowie zu sicherheitsrelevanten IT-Eigenschaften) und Sicherheitsmaßnahmen bzw. den Einsatz bestimmter Sicherheitsprodukte empfehlen. Hersteller betroffener Produkte sind grundsätzlich vorab zu informieren; Warnungen werden bei Wegfall der Voraussetzungen regelmäßig überprüft.
@@ -991,7 +991,7 @@
 Kommunikation mit den Behörden etablieren und regelmäßig Informationen über diese Kanäle abrufen.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1.2</t>
+    <t xml:space="preserve">2.3.2</t>
   </si>
   <si>
     <t xml:space="preserve">Das BSI kann Abfragen an den Schnittstellen öffentlich erreichbarer informationstechnischer Systeme zu öffentlichen Telekommunikationsnetzen durchführen, um bekannte Schwachstellen oder andere Sicherheitsrisiken zu detektieren – auch auf Ersuchen von Einrichtungen. Wird ein Risiko erkannt, informiert das BSI die Verantwortlichen unverzüglich und weist auf bestehende Möglichkeiten zur Abhilfe hin.
@@ -1012,7 +1012,7 @@
     <t xml:space="preserve">Aufsicht &amp; Durchsetzung</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1.3</t>
+    <t xml:space="preserve">2.3.3</t>
   </si>
   <si>
     <t xml:space="preserve">Schwachstellenmanagement</t>
@@ -1026,6 +1026,9 @@
   </si>
   <si>
     <t xml:space="preserve">Entwicklung beobachten und entsprechend beim BSI nach Freischaltung des Portals registrieren.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4</t>
   </si>
   <si>
     <t xml:space="preserve">Korrekturmaßnahmen</t>
@@ -1438,8 +1441,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H3" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2275,16 +2278,16 @@
         <v>137</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>67</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>142</v>
@@ -2296,7 +2299,7 @@
         <v>37</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="103.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2309,9 +2312,7 @@
       <c r="C25" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>147</v>
-      </c>
+      <c r="D25" s="6"/>
       <c r="E25" s="3" t="s">
         <v>67</v>
       </c>
@@ -2414,17 +2415,17 @@
       <c r="C28" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="6" t="n">
-        <v>7</v>
+      <c r="D28" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>52</v>
@@ -2436,7 +2437,7 @@
         <v>37</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/storage/app/repository/NIS2.de.xlsx
+++ b/storage/app/repository/NIS2.de.xlsx
@@ -419,7 +419,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="167">
   <si>
     <t xml:space="preserve">Rahmenwerk</t>
   </si>
@@ -977,6 +977,9 @@
   <si>
     <t xml:space="preserve">Kunden-, Behörden-, Versicherungs- und Lieferantendaten so vorhalten, dass sie auch bei einem Ransomware-Angriff abrufbar sind.
 Prozesse vorsehen, die eine Information an interessierte Kreise ermöglichen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3.1</t>
   </si>
   <si>
     <t xml:space="preserve">Das BSI kann Warnungen und Informationen an die Öffentlichkeit oder an betroffene Kreise richten (z. B. zu Schwachstellen, Schadprogrammen, Datenverlust oder unbefugtem Datenzugriff sowie zu sicherheitsrelevanten IT-Eigenschaften) und Sicherheitsmaßnahmen bzw. den Einsatz bestimmter Sicherheitsprodukte empfehlen. Hersteller betroffener Produkte sind grundsätzlich vorab zu informieren; Warnungen werden bei Wegfall der Voraussetzungen regelmäßig überprüft.
@@ -1441,8 +1444,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2302,7 +2305,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="103.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="117.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
@@ -2312,15 +2315,17 @@
       <c r="C25" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="E25" s="3" t="s">
         <v>67</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>142</v>
@@ -2332,7 +2337,7 @@
         <v>37</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="250.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2346,16 +2351,16 @@
         <v>137</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>88</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>142</v>
@@ -2367,7 +2372,7 @@
         <v>37</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="92.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2378,19 +2383,19 @@
         <v>11</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>59</v>
@@ -2402,7 +2407,7 @@
         <v>37</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="114.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2416,16 +2421,16 @@
         <v>47</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>52</v>
@@ -2437,7 +2442,7 @@
         <v>37</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/storage/app/repository/NIS2.de.xlsx
+++ b/storage/app/repository/NIS2.de.xlsx
@@ -479,8 +479,8 @@
     <t xml:space="preserve">Die Einrichtung ist geprüft, ob sie unter NIS 2 fällt</t>
   </si>
   <si>
-    <t xml:space="preserve">Grün: NIS 2 betroffen und registriert
-Orange: NIS 2 betroffen und nicht registriert
+    <t xml:space="preserve">Grün: NIS 2 Betroffenheit verbrieft festgestellt
+Orange: NIS 2 Betroffenheit noch nicht bestätigt
 Rot: NIS 2 Prüfung steht noch aus</t>
   </si>
   <si>
@@ -515,8 +515,7 @@
 Rot: Daten nicht übermittelt</t>
   </si>
   <si>
-    <t xml:space="preserve">Entscheidungen bzw. Schlussfolgerungen müssen durch die Geschäftsleitung getroffen werden und für die nationale Behörde (und den Kunden) dokumentiert werden.
-Vorbereitung entsprechender Informationen zur Registrierung für die Behörde. 
+    <t xml:space="preserve">Vorbereitung entsprechender Informationen zur Registrierung für die Behörde. 
 Kontaktdaten sollten nicht personenbezogen sein, um bei Verantwortungswechsel weiterhin aktuell zu sein.
 Die Registrierung erfolgt in zwei Stufen:
 https://www.bsi.bund.de/DE/Themen/Regulierte-Wirtschaft/NIS-2-regulierte-Unternehmen/NIS-2-Pflichten/nis-2-pflichten_node.html </t>
@@ -535,7 +534,7 @@
 DE: BSIG §38, §30 (BGBl. I 2025 Nr. 301)</t>
   </si>
   <si>
-    <t xml:space="preserve">#Führung #Management_Verpflichtung ISO 27001/27002: Basic requirement for an ISMS in general; Chapter 5 "Leadership"; Kapitel 6 „Planung“ / 6.1; Chapter 8 "Operation"; Chapter 9 „Bewertung der Leistung“; Kapitel 10 „Verbesserung“</t>
+    <t xml:space="preserve">#Führung #Management_Verpflichtung ISO 27001/27002: Basic requirement for an ISMS in general; Kapitel 5 Führung; Kapitel 6 Planung / 6.1; Kapitel 8 Funktion; Kapitel 9 Managementbewertung; Kapitel 10 Kontinuierliche Verbesserung</t>
   </si>
   <si>
     <t xml:space="preserve">Von der Leitung genehmigte Richtlinien, ISMS-Geltungsbereich, Protokolle aus Management-Reviews</t>
@@ -563,7 +562,7 @@
 DE: BSIG §38 Abs. 3 (BGBl. I 2025 Nr. 301)</t>
   </si>
   <si>
-    <t xml:space="preserve">#Schulung_und_Sensibilisierung ISO 27001/27002: Chapter 7.2 "Competence"; Chapter 7.3 "Awareness"; A.6.3 Sensibilisierung, Ausbildung und Schulung zur Informationssicherheit</t>
+    <t xml:space="preserve">#Schulung_und_Sensibilisierung ISO 27001/27002: Kapitel 7.2 Kompetenz; Kapitel 7.3 Sensibilisierung; A.6.3 Sensibilisierung, Ausbildung und Schulung zur Informationssicherheit</t>
   </si>
   <si>
     <t xml:space="preserve">Protokolle aus Management-Reviews, Schulungsnachweise</t>
@@ -596,7 +595,7 @@
 DE: BSIG §30 Abs. 1–2 (BGBl. I 2025 Nr. 301)</t>
   </si>
   <si>
-    <t xml:space="preserve">#ISMS #risikobasierter_Ansatz #Stand_der_Technik ISO 27001/27002: Kapitel 4 „Kontext der Organisation“; Kapitel 6 „Planung“</t>
+    <t xml:space="preserve">#ISMS #risikobasierter_Ansatz #Stand_der_Technik ISO 27001/27002: Kapitel 4 Kontext der Organisation; Kapitel 6 Planung</t>
   </si>
   <si>
     <t xml:space="preserve">Risikobewertungsberichte, ISMS-Dokumentation, SoA (Statement of Applicability), Audits, Risikobehandlungspläne</t>
@@ -622,7 +621,7 @@
 DE: BSIG §30 Abs. 2 Satz 1 (BGBl. I 2025 Nr. 301)</t>
   </si>
   <si>
-    <t xml:space="preserve">#Allgemeiner_ISO_Verweis #IEC_27000_Reihe ISO 27001/27002: All controls with regards to the named threats</t>
+    <t xml:space="preserve">#Allgemeiner_ISO_Verweis #IEC_27000_Reihe ISO 27001/27002: Alle Kontrollen in Bezug auf die genannten Bedrohungen</t>
   </si>
   <si>
     <t xml:space="preserve">Richtlinien, Verfahren, Aufzeichnungen und Protokolle (Logs) als Nachweis für Umsetzung und Betrieb</t>
@@ -645,7 +644,7 @@
 DE: BSIG §30 Abs. 2 Satz 2 (BGBl. I 2025 Nr. 301)</t>
   </si>
   <si>
-    <t xml:space="preserve">#Richtlinien #Risikomanagement ISO 27001/27002: Kapitel 5 „Führung“; Chapter 6.1 "Actions to address risks and opportunities"; A.5.1 „Richtlinien zur Informationssicherheit“</t>
+    <t xml:space="preserve">#Richtlinien #Risikomanagement ISO 27001/27002: Kapitel 5 Führung; Kapitel 6 Planung; A.5.1 Richtlinien zur Informationssicherheit</t>
   </si>
   <si>
     <t xml:space="preserve">Prüfen, welchem Ansatz man grundsätzlich folgen möchte, Dokumentation und Begründung der Entscheidung auf Basis von:
@@ -654,7 +653,7 @@
 * die Eintrittswahrscheinlichkeit
 * die Schadenshöhe
 * die Auswirkungen auf die Gesellschaft/Wirtschaft
-Es ist zu erwarten, dass Kunden nach dem NIS 2 Risikokonzept anfragen. Eine vorgefertigte Antwort sollte hierzu parat liegen. Anfragen sind zu erwarten seitens Sales, IT-Betrieb, Wartung/Instandhaltung für z.B. Rechte-/Rollenkonzept, Zugriffsschutz, etc.</t>
+Es ist zu erwarten, dass Kunden nach dem NIS 2 Risikokonzept anfragen. Eine vorgefertigte Antwort sollte hierzu parat liegen. Anfragen sind zu erwarten seitens Sales, IT-Betrieb, Wartung/Instandhaltung für z.B. Rechte-/Rollenkonzept, Zugriffsschutz, Fernwartung, etc.</t>
   </si>
   <si>
     <t xml:space="preserve">3.2.3</t>
@@ -667,7 +666,7 @@
 DE: BSIG §30 Abs. 2 Satz 2  (BGBl. I 2025 Nr. 301)</t>
   </si>
   <si>
-    <t xml:space="preserve">#Vorfallmanagement ISO 27001/27002: A.5.24 "Information security incident management planning and preparation"; A.5.26 "Response to information security incident"; A.5.27 "Learning from information security incidents"</t>
+    <t xml:space="preserve">#Vorfallmanagement ISO 27001/27002: A.5.24 Informationssicherheitsvorfallmanagement; A.5.26 Reaktion auf Informationssicherheitsvorfälle; A.5.27 Aus Informationssicherheitsvorfällen lernen</t>
   </si>
   <si>
     <t xml:space="preserve">Übung der Einordnung von Vorfällen (Störung, Krise, Security-Vorfall) auf Basis z.B. Cyber-Sicherheitsnetzwerk des BSI
@@ -685,7 +684,7 @@
 DE: BSIG §30 Abs. 2 Satz 3 (BGBl. I 2025 Nr. 301)</t>
   </si>
   <si>
-    <t xml:space="preserve">#Business_Continuity_Management ISO 27001/27002: 5.29 Information security during disruption; 5.30 ICT readiness for business continuity; 8.13 Information backup; 8.14 Redundancy of information processing facilities</t>
+    <t xml:space="preserve">#Business_Continuity_Management ISO 27001/27002: A.5.29 Informationssicherheit während einer Störung; A.5.30 IKT-Bereitschaft für Geschäftskontinuität; A.8.13 Sichern von Informationen; A.8.14 Redundanz der Informationsverarbeitungsmittel</t>
   </si>
   <si>
     <t xml:space="preserve">Risikobewertungsberichte, ISMS-Dokumentation, SoA (Statement of Applicability), Audits, Risikobehandlungspläne, Backup-Pläne</t>
@@ -709,7 +708,7 @@
 DE: BSIG §30 Abs. 2 Satz 4 (BGBl. I 2025 Nr. 301)</t>
   </si>
   <si>
-    <t xml:space="preserve">#Lieferkettensicherheit ISO 27001/27002: #Lieferantenbeziehungen_security; A.5.19 Informationssicherheit in Lieferantenbeziehungen; A.5.20 Addressing information security within supplier agreements; A.5.21 Managing information security in the ICT supply chain; A.5.22 Monitoring, review and change management of supplier services; A.5.23 Informationssicherheit bei Nutzung von Cloud-Diensten</t>
+    <t xml:space="preserve">#Lieferkettensicherheit ISO 27001/27002: #Lieferantenbeziehungen_security; A.5.19 Informationssicherheit in Lieferantenbeziehungen; A.5.20 Berücksichtigung der Informationssicherheit in Verträgen mit Lieferanten; A.5.21 Informationssicherehitsmanagment in der IKT-Lieferkette; A.5.22 Management der Lieferantenleistung; A.5.23 Informationssicherheit bei Nutzung von Cloud-Diensten</t>
   </si>
   <si>
     <t xml:space="preserve">Richtlinie/Prozess etablieren, der eine angemessene Lieferantenauskunft einfordert,  z.B. ISO 27001/TISAX/IEC 62443-4-1 
@@ -734,7 +733,7 @@
 DE: BSIG §30 Abs. 2 Satz 5 (BGBl. I 2025 Nr. 301)</t>
   </si>
   <si>
-    <t xml:space="preserve">#Sichere_Entwicklung ISO 27001/27002: A.5.7 Threat intelligence; A.5.6 Contact with special interest groups; A.8.25 Secure development life cycle; A.8.26 Application security requirements; A.8.27 Secure system architecture and engineering principles; A.8.28 Secure coding; A.8.29 Security testing in development and acceptance; A.8.30 Outsourced development; A.8.31 Separation of development, test and production environments; A.8.32 Change management; A.8.33 Test information; A.8.34 Protection of information systems during audit testing</t>
+    <t xml:space="preserve">#Sichere_Entwicklung ISO 27001/27002: A.5.7 Bedrohungsinformationen; A.5.6 Beziehungen zu spezialisierten Arbeitsgruppen; A.8.25 Sicherer Entwicklungszyklus; A.8.26 Anforderung an die Anwendungssicherheit; A.8.27 Prinzipen der sicheren Systemarchitektur und Entwicklung; A.8.28 Sichere Programmierung; A.8.29 Sicherheitstests in Entwicklung und Abnahme; A.8.30 Ausgelagerte Entwicklung; A.8.31 Trennung von Entwicklungs-, Test- und Produktionsumgebungen; A.8.32 Änderungsmanagement; A.8.33 Testdaten; A.8.34 Schutz von Informationssystemen während Audits und Tests</t>
   </si>
   <si>
     <t xml:space="preserve">Es sollte eine konkrete Auskunft zum End of Support (EOS) eingefordert werden. Beschaffungsrichtlinie für IT/OT-Systeme mit Blick auf Cyber-Security.
@@ -755,7 +754,7 @@
 DE: BSIG §30 Abs. 2 Satz 6 (BGBl. I 2025 Nr. 301)</t>
   </si>
   <si>
-    <t xml:space="preserve">#Risikomanagement ISO 27001/27002: Chapter 9 "Performance evaluation"; A.5.35 Independent review of information security; A.5.36 Compliance with policies, rules and standards for information security</t>
+    <t xml:space="preserve">#Risikomanagement ISO 27001/27002: Kapitel 9 Bewertung der Leistung; A.5.35 Unabhängige Überprüfung der Informationssicherheit; A.5.36 Einhaltung von Richtlinien und Standards zur Informationssicherheit</t>
   </si>
   <si>
     <t xml:space="preserve">KPI's zur kontrollierten und standardisierten Vorgehensweise bilden, z.B. Anteil der geschulten Mitarbeiter, Passwortqualität, offene (kritische) Tickets, Anzahl Schwachstellen, Anzahl der erfolgreich wiederhergestellten Dateien aus dem Backup, Anzahl der erfolgreich wiederhergestellten Servern aus dem Backup etc.</t>
@@ -798,7 +797,7 @@
 DE: BSIG §30 Abs. 2 Nr. 8 (BGBl. I 2025 Nr. 301)</t>
   </si>
   <si>
-    <t xml:space="preserve">#Kryptographie ISO 27001/27002: A.8.24 Einsatz von Kryptographie ....; See A.5.31 Legal, statutory, regulatory and contractual requirements; Encryption as a potential measure in several controls</t>
+    <t xml:space="preserve">#Kryptographie ISO 27001/27002: A.8.24 Einsatz von Kryptographie;  A.5.31 Trennung von Entwicklungs-, Test- und Produktionsumgebungen; Verschlüsselung als mögliche Maßnahme in mehreren Kontrollen</t>
   </si>
   <si>
     <t xml:space="preserve">Soweit möglich sollten Datenübertragungen nur mit Transportverschlüsselungen nach Stand der Technik erfolgen.
@@ -831,7 +830,7 @@
     <t xml:space="preserve">Zugriffskontrolle</t>
   </si>
   <si>
-    <t xml:space="preserve">#Zugriffskontrolle ISO 27001/27002: A.5.15 Zugriffskontrolle; A.5.16 Identity management; A.5.17 Authentication information; A.5.18 Access rights; A.7.2 Physischer Zutritt; #Identitäts_und_Zugriffsmanagement</t>
+    <t xml:space="preserve">#Zugriffskontrolle ISO 27001/27002: A.5.15 Zugriffskontrolle; A.5.16 Identitätsverwaltungt; A.5.17 Authentifizierungsinformationen; A.5.18 Zugangsrechte; A.7.2 Physische Zugangskontrolle; #Identitäts_und_Zugriffsmanagement</t>
   </si>
   <si>
     <t xml:space="preserve">Zugangsschutz durch verwaltete Ausweiskarten, z.B. zu einer Leitwarte, IT-Serverraum. Festlegung von physischen Sicherheitszonen, z.B. Betriebsgelände -&gt; Verwaltungsgebäude -&gt; Serverraum -&gt; Rack -&gt; USB-Schnittstelle
@@ -848,7 +847,7 @@
     <t xml:space="preserve">Asset-Management</t>
   </si>
   <si>
-    <t xml:space="preserve">#Asset_Management ISO 27001/27002: A.5.9; A.5.10; A.5.11; A.5.12; #Asset_Management</t>
+    <t xml:space="preserve">#Asset_Management ISO 27001/27002: A.5.9 Inventarisierung; A.5.10 Ordnungsgemäße Verwendung von Informationen; A.5.11 Rückgabe von Vermögenswerten; A.5.12 Klassifizierung von Informationen; #Asset_Management</t>
   </si>
   <si>
     <t xml:space="preserve">Hilfreich ist eine Auflistung aller Assets und Klassifizierung von Assets bezüglich des Wertes für das Unternehmen mit Aufrechterhaltung der Aktualität der Assetliste mindestens bei Zu/Abgängen von Assets.
@@ -989,7 +988,7 @@
     <t xml:space="preserve">#Vorfallmanagement ISO 27001/27002: A.5.5 Beziehungen zu den Behörden</t>
   </si>
   <si>
-    <t xml:space="preserve">Geschäftsführung über die Problematik in Kenntnis setzen.
+    <t xml:space="preserve">Geschäftsführung über die Möglichkeiten des BSI in Kenntnis setzen.
 Meldung von BSI und Dritten ermöglichen und Reaktionen garantieren. Ggf. über security.txt auf Webseite.
 Kommunikation mit den Behörden etablieren und regelmäßig Informationen über diese Kanäle abrufen.</t>
   </si>
@@ -1004,8 +1003,8 @@
     <t xml:space="preserve">#Risikomanagement</t>
   </si>
   <si>
-    <t xml:space="preserve">kontinuierliches Updaten hinsichtlich IT-Sicherheits-relevanter Produkte/Systeme/Dienste, die öffentlich erreichbar sind. 
-Klärung mit Dienstleistern, ob diese für deren Systeme dies auch vornehmen.
+    <t xml:space="preserve">Kontinuierliches Updaten hinsichtlich IT-Sicherheits-relevanter Produkte/Systeme/Dienste, die öffentlich erreichbar sind. 
+Klärung mit Dienstleistern, ob diese für gemanagte Services auch kontinuierliche Updates durchführen.
 Regelmäßige Prüfung, ob die öffentlich erreichbaren Systeme auch notwendigerweise erreichbar sein müssen.
 Penetration Tests bzw. Schwachstellenprüfung bei neuen Produkten/Diensten, die relevant für die Geschäftsprozesse sind und/oder mind. jährliche Prüfung des externen Angreifbarkeit (Schwachstellen und Konfigurationsfehler in öffentlich erreichbaren Systemen) sowie anlassbezogen. -&gt; "External Attack Surcface"
 OT: Neue Maschinen sollten bei Inbetriebnahme geprüft werden.
@@ -1444,8 +1443,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F9" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1710,7 +1709,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="148.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="152.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -2340,7 +2339,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="250.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="257.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>11</v>
       </c>
@@ -2447,9 +2446,6 @@
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="K7" r:id="rId2" display="Standards/Kataloge mit dem Bezug zum Allgefahrenansatz nutzen, hier kann ISO 27001, BSI-Grundschutz und TISAX genutzt werden.&#10;&#10;Für Betriebssicherheit die TRBS 115-1 beachten: https://www.baua.de/DE/Angebote/Regelwerk/TRBS/TRBS-1115-Teil-1.html, &#10;&#10;KMU-gerecht sind unter anderem&#10;VDS 1000: https://www.kiss-nis2.de/doku.php&#10;Grundschutz Plus: https://security4kmu.de/"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2457,6 +2453,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>